--- a/opm_hero_property/heroes/84.xlsx
+++ b/opm_hero_property/heroes/84.xlsx
@@ -14,6 +14,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="talent" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mechanical" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="limiter" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="status" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1197,7 +1198,7 @@
         <v>10893</v>
       </c>
       <c r="D4" t="n">
-        <v>10893</v>
+        <v>11682</v>
       </c>
       <c r="E4" t="n">
         <v>268</v>
@@ -1304,7 +1305,7 @@
         <v>11904</v>
       </c>
       <c r="D5" t="n">
-        <v>11904</v>
+        <v>13587</v>
       </c>
       <c r="E5" t="n">
         <v>402</v>
@@ -1411,7 +1412,7 @@
         <v>13094</v>
       </c>
       <c r="D6" t="n">
-        <v>13094</v>
+        <v>15829</v>
       </c>
       <c r="E6" t="n">
         <v>551</v>
@@ -1518,7 +1519,7 @@
         <v>14463</v>
       </c>
       <c r="D7" t="n">
-        <v>14463</v>
+        <v>20510</v>
       </c>
       <c r="E7" t="n">
         <v>1033</v>
@@ -1625,7 +1626,7 @@
         <v>16010</v>
       </c>
       <c r="D8" t="n">
-        <v>16010</v>
+        <v>26984</v>
       </c>
       <c r="E8" t="n">
         <v>1531</v>
@@ -1732,7 +1733,7 @@
         <v>17795</v>
       </c>
       <c r="D9" t="n">
-        <v>17795</v>
+        <v>35699</v>
       </c>
       <c r="E9" t="n">
         <v>2021</v>
@@ -1839,7 +1840,7 @@
         <v>18747</v>
       </c>
       <c r="D10" t="n">
-        <v>18747</v>
+        <v>42958</v>
       </c>
       <c r="E10" t="n">
         <v>2388</v>
@@ -1946,7 +1947,7 @@
         <v>19877</v>
       </c>
       <c r="D11" t="n">
-        <v>19877</v>
+        <v>51870</v>
       </c>
       <c r="E11" t="n">
         <v>2786</v>
@@ -2053,7 +2054,7 @@
         <v>22257</v>
       </c>
       <c r="D12" t="n">
-        <v>22257</v>
+        <v>67733</v>
       </c>
       <c r="E12" t="n">
         <v>3429</v>
@@ -2160,7 +2161,7 @@
         <v>22733</v>
       </c>
       <c r="D13" t="n">
-        <v>22733</v>
+        <v>69975</v>
       </c>
       <c r="E13" t="n">
         <v>3858</v>
@@ -2267,7 +2268,7 @@
         <v>23209</v>
       </c>
       <c r="D14" t="n">
-        <v>23209</v>
+        <v>72217</v>
       </c>
       <c r="E14" t="n">
         <v>4287</v>
@@ -2374,7 +2375,7 @@
         <v>23685</v>
       </c>
       <c r="D15" t="n">
-        <v>23685</v>
+        <v>74459</v>
       </c>
       <c r="E15" t="n">
         <v>4715</v>
@@ -2481,7 +2482,7 @@
         <v>24161</v>
       </c>
       <c r="D16" t="n">
-        <v>24161</v>
+        <v>76701</v>
       </c>
       <c r="E16" t="n">
         <v>5144</v>
@@ -2588,7 +2589,7 @@
         <v>24637</v>
       </c>
       <c r="D17" t="n">
-        <v>24637</v>
+        <v>78943</v>
       </c>
       <c r="E17" t="n">
         <v>5573</v>
@@ -6874,4 +6875,2796 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AK23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>战斗类型</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>品质</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>pve等级</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>等级强化</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>装备品质%</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>装备强化%</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>天赋</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>研究所核心</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>职阶</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>限制器</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>机械核心</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>HeroId</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Quality</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Level</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>EnhancePeriod</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Equips</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>TalentLevel</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Skills</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>hp</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>atk</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>def</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>crit</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>crit_res</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>crit_dmg</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>precise</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>parry</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>dmg_res</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>fury</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>show_level</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>chase</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>academy</t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t>job</t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>limiter</t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t>mechanical</t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t>aura</t>
+        </is>
+      </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t>type_aura</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>81</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>84</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="n">
+        <v>5</v>
+      </c>
+      <c r="O2" t="n">
+        <v>81</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>3,2,1,1,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="T2" t="n">
+        <v>29117.681808</v>
+      </c>
+      <c r="U2" t="n">
+        <v>5549.3605408</v>
+      </c>
+      <c r="V2" t="n">
+        <v>2008.8469</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1500</v>
+      </c>
+      <c r="X2" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>600</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C3" t="n">
+        <v>121</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>84</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="n">
+        <v>7</v>
+      </c>
+      <c r="O3" t="n">
+        <v>121</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>3,2,2,2,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="T3" t="n">
+        <v>41007.0359852</v>
+      </c>
+      <c r="U3" t="n">
+        <v>7920.979168</v>
+      </c>
+      <c r="V3" t="n">
+        <v>3096.408</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1500</v>
+      </c>
+      <c r="X3" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>600</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>121</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>9</v>
+      </c>
+      <c r="C4" t="n">
+        <v>161</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>9</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>15</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>84</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="n">
+        <v>9</v>
+      </c>
+      <c r="O4" t="n">
+        <v>161</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>4,3,2,2,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="T4" t="n">
+        <v>75336.3106628</v>
+      </c>
+      <c r="U4" t="n">
+        <v>13788.5644</v>
+      </c>
+      <c r="V4" t="n">
+        <v>6592.724</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1500</v>
+      </c>
+      <c r="X4" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>600</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9</v>
+      </c>
+      <c r="C5" t="n">
+        <v>161</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>9</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>15</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>84</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="n">
+        <v>9</v>
+      </c>
+      <c r="O5" t="n">
+        <v>161</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>4,3,2,2,0,1,0,0,1</t>
+        </is>
+      </c>
+      <c r="T5" t="n">
+        <v>84937.61279207999</v>
+      </c>
+      <c r="U5" t="n">
+        <v>14710.16576</v>
+      </c>
+      <c r="V5" t="n">
+        <v>7841.4270684</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1500</v>
+      </c>
+      <c r="X5" t="n">
+        <v>470</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>2070</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>600</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>21,14132.92979088;31,0.0;41,1842.8802056</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>21,0.0;31,0.0;41,0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C6" t="n">
+        <v>161</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>9</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>15</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>84</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="n">
+        <v>9</v>
+      </c>
+      <c r="O6" t="n">
+        <v>161</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>4,3,2,2,1,1,0,0,2</t>
+        </is>
+      </c>
+      <c r="T6" t="n">
+        <v>89506.36168936</v>
+      </c>
+      <c r="U6" t="n">
+        <v>13471.63112</v>
+      </c>
+      <c r="V6" t="n">
+        <v>9090.5863092</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1500</v>
+      </c>
+      <c r="X6" t="n">
+        <v>470</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>2070</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>600</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>21,28265.85958176;31,0.0;41,3685.7604112</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>21,0.0;31,0.0;41,0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>11</v>
+      </c>
+      <c r="C7" t="n">
+        <v>240</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>10</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>25</v>
+      </c>
+      <c r="I7" t="n">
+        <v>15</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>84</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="n">
+        <v>11</v>
+      </c>
+      <c r="O7" t="n">
+        <v>240</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>5,3,3,3,0,2,1,0,0</t>
+        </is>
+      </c>
+      <c r="T7" t="n">
+        <v>278454.6385258</v>
+      </c>
+      <c r="U7" t="n">
+        <v>47357.180416</v>
+      </c>
+      <c r="V7" t="n">
+        <v>28833.4431</v>
+      </c>
+      <c r="W7" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X7" t="n">
+        <v>930</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>2960</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>3810</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>11</v>
+      </c>
+      <c r="C8" t="n">
+        <v>240</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>10</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>25</v>
+      </c>
+      <c r="I8" t="n">
+        <v>15</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>84</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="n">
+        <v>11</v>
+      </c>
+      <c r="O8" t="n">
+        <v>240</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>5,3,3,3,1,2,1,0,1</t>
+        </is>
+      </c>
+      <c r="T8" t="n">
+        <v>265593.58353188</v>
+      </c>
+      <c r="U8" t="n">
+        <v>39364.0747264</v>
+      </c>
+      <c r="V8" t="n">
+        <v>30163.45703671</v>
+      </c>
+      <c r="W8" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X8" t="n">
+        <v>930</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>3810</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>21,15766.973905679999;31,0.0;41,2029.30024514</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>21,0.0;31,0.0;41,0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>11</v>
+      </c>
+      <c r="C9" t="n">
+        <v>240</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>10</v>
+      </c>
+      <c r="F9" t="n">
+        <v>5</v>
+      </c>
+      <c r="G9" t="n">
+        <v>10</v>
+      </c>
+      <c r="H9" t="n">
+        <v>25</v>
+      </c>
+      <c r="I9" t="n">
+        <v>15</v>
+      </c>
+      <c r="J9" t="n">
+        <v>5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>84</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="n">
+        <v>11</v>
+      </c>
+      <c r="O9" t="n">
+        <v>240</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="n">
+        <v>10</v>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>5,3,3,3,2,2,1,0,5</t>
+        </is>
+      </c>
+      <c r="T9" t="n">
+        <v>312700.9091022</v>
+      </c>
+      <c r="U9" t="n">
+        <v>45569.125888</v>
+      </c>
+      <c r="V9" t="n">
+        <v>35493.27024079</v>
+      </c>
+      <c r="W9" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X9" t="n">
+        <v>930</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>2360</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>3810</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>21,78834.8695284;31,0.0;41,10146.5012257</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>21,0.0;31,0.0;41,0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>11</v>
+      </c>
+      <c r="C10" t="n">
+        <v>240</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>10</v>
+      </c>
+      <c r="F10" t="n">
+        <v>5</v>
+      </c>
+      <c r="G10" t="n">
+        <v>20</v>
+      </c>
+      <c r="H10" t="n">
+        <v>25</v>
+      </c>
+      <c r="I10" t="n">
+        <v>15</v>
+      </c>
+      <c r="J10" t="n">
+        <v>5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>84</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="n">
+        <v>11</v>
+      </c>
+      <c r="O10" t="n">
+        <v>240</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="n">
+        <v>20</v>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>5,3,3,3,3,2,1,0,5</t>
+        </is>
+      </c>
+      <c r="T10" t="n">
+        <v>318498.0588402</v>
+      </c>
+      <c r="U10" t="n">
+        <v>47814.859648</v>
+      </c>
+      <c r="V10" t="n">
+        <v>35493.27024079</v>
+      </c>
+      <c r="W10" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X10" t="n">
+        <v>930</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>2560</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>3810</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>21,78834.8695284;31,0.0;41,10146.5012257</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>21,0.0;31,0.0;41,0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>11</v>
+      </c>
+      <c r="C11" t="n">
+        <v>240</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>10</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5</v>
+      </c>
+      <c r="G11" t="n">
+        <v>30</v>
+      </c>
+      <c r="H11" t="n">
+        <v>25</v>
+      </c>
+      <c r="I11" t="n">
+        <v>15</v>
+      </c>
+      <c r="J11" t="n">
+        <v>10</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>84</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="n">
+        <v>11</v>
+      </c>
+      <c r="O11" t="n">
+        <v>240</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="n">
+        <v>30</v>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,1,0,10</t>
+        </is>
+      </c>
+      <c r="T11" t="n">
+        <v>374773.498421</v>
+      </c>
+      <c r="U11" t="n">
+        <v>54897.453472</v>
+      </c>
+      <c r="V11" t="n">
+        <v>42026.25043746</v>
+      </c>
+      <c r="W11" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X11" t="n">
+        <v>930</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>2760</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>3810</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>21,155061.0216747;31,0.0;41,20007.59682713</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>21,0.0;31,0.0;41,0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="n">
+        <v>240</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>10</v>
+      </c>
+      <c r="F12" t="n">
+        <v>5</v>
+      </c>
+      <c r="G12" t="n">
+        <v>30</v>
+      </c>
+      <c r="H12" t="n">
+        <v>25</v>
+      </c>
+      <c r="I12" t="n">
+        <v>14</v>
+      </c>
+      <c r="J12" t="n">
+        <v>5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>84</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="n">
+        <v>11</v>
+      </c>
+      <c r="O12" t="n">
+        <v>240</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="n">
+        <v>30</v>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,0,0,5</t>
+        </is>
+      </c>
+      <c r="T12" t="n">
+        <v>324295.2085782</v>
+      </c>
+      <c r="U12" t="n">
+        <v>50060.593408</v>
+      </c>
+      <c r="V12" t="n">
+        <v>35493.27024079</v>
+      </c>
+      <c r="W12" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X12" t="n">
+        <v>860</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>2760</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>3740</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>21,78834.8695284;31,0.0;41,10146.5012257</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>21,0.0;31,0.0;41,0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>13</v>
+      </c>
+      <c r="C13" t="n">
+        <v>260</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>10</v>
+      </c>
+      <c r="F13" t="n">
+        <v>5</v>
+      </c>
+      <c r="G13" t="n">
+        <v>30</v>
+      </c>
+      <c r="H13" t="n">
+        <v>35</v>
+      </c>
+      <c r="I13" t="n">
+        <v>24</v>
+      </c>
+      <c r="J13" t="n">
+        <v>6</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>84</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="n">
+        <v>13</v>
+      </c>
+      <c r="O13" t="n">
+        <v>260</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="n">
+        <v>30</v>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,2,0,6</t>
+        </is>
+      </c>
+      <c r="T13" t="n">
+        <v>473980.34289748</v>
+      </c>
+      <c r="U13" t="n">
+        <v>73240.79369471999</v>
+      </c>
+      <c r="V13" t="n">
+        <v>56665.50735466</v>
+      </c>
+      <c r="W13" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>2760</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>3880</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>260</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>21,100891.19755728;31,0.0;41,13112.87356824</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>21,0.0;31,0.0;41,0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" t="n">
+        <v>260</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>10</v>
+      </c>
+      <c r="F14" t="n">
+        <v>5</v>
+      </c>
+      <c r="G14" t="n">
+        <v>30</v>
+      </c>
+      <c r="H14" t="n">
+        <v>35</v>
+      </c>
+      <c r="I14" t="n">
+        <v>25</v>
+      </c>
+      <c r="J14" t="n">
+        <v>7</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>84</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="n">
+        <v>13</v>
+      </c>
+      <c r="O14" t="n">
+        <v>260</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="n">
+        <v>30</v>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,2,1,7</t>
+        </is>
+      </c>
+      <c r="T14" t="n">
+        <v>484773.76493876</v>
+      </c>
+      <c r="U14" t="n">
+        <v>74274.83610304</v>
+      </c>
+      <c r="V14" t="n">
+        <v>58063.64178072001</v>
+      </c>
+      <c r="W14" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X14" t="n">
+        <v>1070</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>2760</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>3950</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>260</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>21,117706.39715016;31,0.0;41,15302.453335940001</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>21,0.0;31,0.0;41,0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>15</v>
+      </c>
+      <c r="C15" t="n">
+        <v>300</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>10</v>
+      </c>
+      <c r="F15" t="n">
+        <v>5</v>
+      </c>
+      <c r="G15" t="n">
+        <v>30</v>
+      </c>
+      <c r="H15" t="n">
+        <v>55</v>
+      </c>
+      <c r="I15" t="n">
+        <v>45</v>
+      </c>
+      <c r="J15" t="n">
+        <v>8</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>84</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="n">
+        <v>15</v>
+      </c>
+      <c r="O15" t="n">
+        <v>300</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="n">
+        <v>30</v>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,3,3,3,8</t>
+        </is>
+      </c>
+      <c r="T15" t="n">
+        <v>1119531.07349472</v>
+      </c>
+      <c r="U15" t="n">
+        <v>174250.48751504</v>
+      </c>
+      <c r="V15" t="n">
+        <v>144828.74567</v>
+      </c>
+      <c r="W15" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X15" t="n">
+        <v>1350</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>2760</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>4230</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>300</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>21,164263.502164;31,0.0;41,22054.70043</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>21,0.0;31,0.0;41,0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>16</v>
+      </c>
+      <c r="C16" t="n">
+        <v>400</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>10</v>
+      </c>
+      <c r="F16" t="n">
+        <v>5</v>
+      </c>
+      <c r="G16" t="n">
+        <v>30</v>
+      </c>
+      <c r="H16" t="n">
+        <v>95</v>
+      </c>
+      <c r="I16" t="n">
+        <v>85</v>
+      </c>
+      <c r="J16" t="n">
+        <v>10</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>84</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="n">
+        <v>16</v>
+      </c>
+      <c r="O16" t="n">
+        <v>400</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="n">
+        <v>30</v>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T16" t="n">
+        <v>5445732.7870372</v>
+      </c>
+      <c r="U16" t="n">
+        <v>868968.9429516</v>
+      </c>
+      <c r="V16" t="n">
+        <v>712065.7461</v>
+      </c>
+      <c r="W16" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X16" t="n">
+        <v>1910</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>2760</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>4790</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>400</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>21,428908;31,0.0;41,51368</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>21,0.0;31,0.0;41,0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" t="n">
+        <v>500</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>10</v>
+      </c>
+      <c r="F17" t="n">
+        <v>5</v>
+      </c>
+      <c r="G17" t="n">
+        <v>30</v>
+      </c>
+      <c r="H17" t="n">
+        <v>160</v>
+      </c>
+      <c r="I17" t="n">
+        <v>150</v>
+      </c>
+      <c r="J17" t="n">
+        <v>10</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>84</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="n">
+        <v>16</v>
+      </c>
+      <c r="O17" t="n">
+        <v>500</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="n">
+        <v>30</v>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T17" t="n">
+        <v>8769276.074582599</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1409531.9408672</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1134626.5052</v>
+      </c>
+      <c r="W17" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X17" t="n">
+        <v>2820</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>2760</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>5700</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>500</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>160</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>21,428908;31,0.0;41,51368</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>21,0.0;31,0.0;41,0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>9</v>
+      </c>
+      <c r="C18" t="n">
+        <v>161</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>9</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>15</v>
+      </c>
+      <c r="I18" t="n">
+        <v>5</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>84</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="n">
+        <v>9</v>
+      </c>
+      <c r="O18" t="n">
+        <v>256</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>5,3,3,3,1,1,0,0,1</t>
+        </is>
+      </c>
+      <c r="T18" t="n">
+        <v>245256.89714088</v>
+      </c>
+      <c r="U18" t="n">
+        <v>39998.98318668</v>
+      </c>
+      <c r="V18" t="n">
+        <v>27211.87945504</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1500</v>
+      </c>
+      <c r="X18" t="n">
+        <v>470</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>2070</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>600</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>256</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>21,10546.10984226;31,0.0;41,1290.90973648</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>21,0.0;31,0.0;41,0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>10</v>
+      </c>
+      <c r="C19" t="n">
+        <v>200</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>9</v>
+      </c>
+      <c r="F19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G19" t="n">
+        <v>10</v>
+      </c>
+      <c r="H19" t="n">
+        <v>20</v>
+      </c>
+      <c r="I19" t="n">
+        <v>10</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>84</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="n">
+        <v>10</v>
+      </c>
+      <c r="O19" t="n">
+        <v>260</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="n">
+        <v>10</v>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>5,3,3,3,2,2,0,0,2</t>
+        </is>
+      </c>
+      <c r="T19" t="n">
+        <v>323990.38726192</v>
+      </c>
+      <c r="U19" t="n">
+        <v>52858.83709008</v>
+      </c>
+      <c r="V19" t="n">
+        <v>36467.3372898</v>
+      </c>
+      <c r="W19" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X19" t="n">
+        <v>860</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>2360</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>3740</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>260</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>21,13539.19312392;31,0.0;41,1657.3952264</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>21,0.0;31,0.0;41,0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>11</v>
+      </c>
+      <c r="C20" t="n">
+        <v>240</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>10</v>
+      </c>
+      <c r="F20" t="n">
+        <v>5</v>
+      </c>
+      <c r="G20" t="n">
+        <v>20</v>
+      </c>
+      <c r="H20" t="n">
+        <v>25</v>
+      </c>
+      <c r="I20" t="n">
+        <v>15</v>
+      </c>
+      <c r="J20" t="n">
+        <v>5</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>84</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="n">
+        <v>11</v>
+      </c>
+      <c r="O20" t="n">
+        <v>264</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="n">
+        <v>20</v>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>5,3,3,3,3,2,1,0,5</t>
+        </is>
+      </c>
+      <c r="T20" t="n">
+        <v>415121.7693496</v>
+      </c>
+      <c r="U20" t="n">
+        <v>66854.5567234</v>
+      </c>
+      <c r="V20" t="n">
+        <v>50203.22458974</v>
+      </c>
+      <c r="W20" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X20" t="n">
+        <v>930</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>2560</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>3810</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>264</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>21,24755.265971679997;31,0.0;41,3141.4979872699996</t>
+        </is>
+      </c>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t>21,0.0;31,0.0;41,0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>13</v>
+      </c>
+      <c r="C21" t="n">
+        <v>260</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>10</v>
+      </c>
+      <c r="F21" t="n">
+        <v>5</v>
+      </c>
+      <c r="G21" t="n">
+        <v>30</v>
+      </c>
+      <c r="H21" t="n">
+        <v>35</v>
+      </c>
+      <c r="I21" t="n">
+        <v>25</v>
+      </c>
+      <c r="J21" t="n">
+        <v>7</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>84</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="n">
+        <v>13</v>
+      </c>
+      <c r="O21" t="n">
+        <v>266</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="n">
+        <v>30</v>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,2,1,7</t>
+        </is>
+      </c>
+      <c r="T21" t="n">
+        <v>473762.72783928</v>
+      </c>
+      <c r="U21" t="n">
+        <v>79797.22774247998</v>
+      </c>
+      <c r="V21" t="n">
+        <v>57613.86948685</v>
+      </c>
+      <c r="W21" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X21" t="n">
+        <v>1070</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>2760</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>3950</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>266</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" t="inlineStr">
+        <is>
+          <t>21,33174.95029417;31,0.0;41,4264.57922525</t>
+        </is>
+      </c>
+      <c r="AK21" t="inlineStr">
+        <is>
+          <t>21,0.0;31,0.0;41,0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>15</v>
+      </c>
+      <c r="C22" t="n">
+        <v>300</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>10</v>
+      </c>
+      <c r="F22" t="n">
+        <v>5</v>
+      </c>
+      <c r="G22" t="n">
+        <v>30</v>
+      </c>
+      <c r="H22" t="n">
+        <v>55</v>
+      </c>
+      <c r="I22" t="n">
+        <v>45</v>
+      </c>
+      <c r="J22" t="n">
+        <v>8</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>84</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="n">
+        <v>15</v>
+      </c>
+      <c r="O22" t="n">
+        <v>270</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="n">
+        <v>30</v>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,3,3,3,8</t>
+        </is>
+      </c>
+      <c r="T22" t="n">
+        <v>550022.535136</v>
+      </c>
+      <c r="U22" t="n">
+        <v>96583.85819456</v>
+      </c>
+      <c r="V22" t="n">
+        <v>69805.54547428001</v>
+      </c>
+      <c r="W22" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X22" t="n">
+        <v>1350</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>2760</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>4230</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>270</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>21,40412.130176;31,0.0;41,5296.37279213</t>
+        </is>
+      </c>
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t>21,0.0;31,0.0;41,0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>16</v>
+      </c>
+      <c r="C23" t="n">
+        <v>400</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>10</v>
+      </c>
+      <c r="F23" t="n">
+        <v>5</v>
+      </c>
+      <c r="G23" t="n">
+        <v>30</v>
+      </c>
+      <c r="H23" t="n">
+        <v>95</v>
+      </c>
+      <c r="I23" t="n">
+        <v>85</v>
+      </c>
+      <c r="J23" t="n">
+        <v>10</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>84</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="n">
+        <v>16</v>
+      </c>
+      <c r="O23" t="n">
+        <v>280</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="n">
+        <v>30</v>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T23" t="n">
+        <v>703198.4572794</v>
+      </c>
+      <c r="U23" t="n">
+        <v>131231.1443292</v>
+      </c>
+      <c r="V23" t="n">
+        <v>94597.2133</v>
+      </c>
+      <c r="W23" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X23" t="n">
+        <v>1910</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>2760</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>4790</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>280</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>21,47805;31,0.0;41,5904</t>
+        </is>
+      </c>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>21,0.0;31,0.0;41,0.0</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/opm_hero_property/heroes/84.xlsx
+++ b/opm_hero_property/heroes/84.xlsx
@@ -7139,31 +7139,31 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>29117.681808</v>
+        <v>7702.096</v>
       </c>
       <c r="U2" t="n">
-        <v>5549.3605408</v>
+        <v>1498.0486</v>
       </c>
       <c r="V2" t="n">
-        <v>2008.8469</v>
+        <v>600.8469</v>
       </c>
       <c r="W2" t="n">
-        <v>1500</v>
+        <v>562</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="Y2" t="n">
         <v>15000</v>
       </c>
       <c r="Z2" t="n">
-        <v>2000</v>
+        <v>240</v>
       </c>
       <c r="AA2" t="n">
-        <v>2000</v>
+        <v>400</v>
       </c>
       <c r="AB2" t="n">
-        <v>600</v>
+        <v>120</v>
       </c>
       <c r="AC2" t="n">
         <v>0</v>
@@ -7250,31 +7250,31 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>41007.0359852</v>
+        <v>20731.2324</v>
       </c>
       <c r="U3" t="n">
-        <v>7920.979168</v>
+        <v>3713.906</v>
       </c>
       <c r="V3" t="n">
-        <v>3096.408</v>
+        <v>1855.408</v>
       </c>
       <c r="W3" t="n">
-        <v>1500</v>
+        <v>673</v>
       </c>
       <c r="X3" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="Y3" t="n">
         <v>15000</v>
       </c>
       <c r="Z3" t="n">
-        <v>2000</v>
+        <v>480</v>
       </c>
       <c r="AA3" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="AB3" t="n">
-        <v>600</v>
+        <v>240</v>
       </c>
       <c r="AC3" t="n">
         <v>0</v>
@@ -7361,31 +7361,31 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>75336.3106628</v>
+        <v>59177.9436</v>
       </c>
       <c r="U4" t="n">
-        <v>13788.5644</v>
+        <v>9634.424999999999</v>
       </c>
       <c r="V4" t="n">
-        <v>6592.724</v>
+        <v>5841.724</v>
       </c>
       <c r="W4" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="X4" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="Y4" t="n">
         <v>15000</v>
       </c>
       <c r="Z4" t="n">
-        <v>2000</v>
+        <v>900</v>
       </c>
       <c r="AA4" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="AB4" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="AC4" t="n">
         <v>0</v>
@@ -7472,31 +7472,31 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>84937.61279207999</v>
+        <v>68779.24572928</v>
       </c>
       <c r="U5" t="n">
-        <v>14710.16576</v>
+        <v>10556.02636</v>
       </c>
       <c r="V5" t="n">
-        <v>7841.4270684</v>
+        <v>7090.4270684</v>
       </c>
       <c r="W5" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="X5" t="n">
-        <v>470</v>
+        <v>370</v>
       </c>
       <c r="Y5" t="n">
         <v>15000</v>
       </c>
       <c r="Z5" t="n">
-        <v>2000</v>
+        <v>900</v>
       </c>
       <c r="AA5" t="n">
-        <v>2070</v>
+        <v>1570</v>
       </c>
       <c r="AB5" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="AC5" t="n">
         <v>0</v>
@@ -7521,12 +7521,12 @@
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>21,14132.92979088;31,0.0;41,1842.8802056</t>
+          <t>21,14132;31,0;41,1842</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>21,0.0;31,0.0;41,0.0</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
     </row>
@@ -7591,31 +7591,31 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>89506.36168936</v>
+        <v>78506.36168936</v>
       </c>
       <c r="U6" t="n">
-        <v>13471.63112</v>
+        <v>11531.63112</v>
       </c>
       <c r="V6" t="n">
-        <v>9090.5863092</v>
+        <v>8339.5863092</v>
       </c>
       <c r="W6" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="X6" t="n">
-        <v>470</v>
+        <v>370</v>
       </c>
       <c r="Y6" t="n">
         <v>15000</v>
       </c>
       <c r="Z6" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="AA6" t="n">
-        <v>2070</v>
+        <v>1570</v>
       </c>
       <c r="AB6" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="AC6" t="n">
         <v>0</v>
@@ -7640,12 +7640,12 @@
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>21,28265.85958176;31,0.0;41,3685.7604112</t>
+          <t>21,28265;31,0;41,3685</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>21,0.0;31,0.0;41,0.0</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
     </row>
@@ -7710,10 +7710,10 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>278454.6385258</v>
+        <v>254686.3246</v>
       </c>
       <c r="U7" t="n">
-        <v>47357.180416</v>
+        <v>38149.672</v>
       </c>
       <c r="V7" t="n">
         <v>28833.4431</v>
@@ -7728,7 +7728,7 @@
         <v>15000</v>
       </c>
       <c r="Z7" t="n">
-        <v>2960</v>
+        <v>2160</v>
       </c>
       <c r="AA7" t="n">
         <v>3810</v>
@@ -7870,12 +7870,12 @@
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>21,15766.973905679999;31,0.0;41,2029.30024514</t>
+          <t>21,15766;31,0;41,2029</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>21,0.0;31,0.0;41,0.0</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
     </row>
@@ -7989,12 +7989,12 @@
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>21,78834.8695284;31,0.0;41,10146.5012257</t>
+          <t>21,78834;31,0;41,10146</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>21,0.0;31,0.0;41,0.0</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
     </row>
@@ -8108,12 +8108,12 @@
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>21,78834.8695284;31,0.0;41,10146.5012257</t>
+          <t>21,78834;31,0;41,10146</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>21,0.0;31,0.0;41,0.0</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
     </row>
@@ -8227,12 +8227,12 @@
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>21,155061.0216747;31,0.0;41,20007.59682713</t>
+          <t>21,155061;31,0;41,20007</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>21,0.0;31,0.0;41,0.0</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
     </row>
@@ -8346,12 +8346,12 @@
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
-          <t>21,78834.8695284;31,0.0;41,10146.5012257</t>
+          <t>21,78834;31,0;41,10146</t>
         </is>
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>21,0.0;31,0.0;41,0.0</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
     </row>
@@ -8465,12 +8465,12 @@
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
-          <t>21,100891.19755728;31,0.0;41,13112.87356824</t>
+          <t>21,100891;31,0;41,13112</t>
         </is>
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>21,0.0;31,0.0;41,0.0</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
     </row>
@@ -8584,12 +8584,12 @@
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
-          <t>21,117706.39715016;31,0.0;41,15302.453335940001</t>
+          <t>21,117706;31,0;41,15302</t>
         </is>
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>21,0.0;31,0.0;41,0.0</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
     </row>
@@ -8703,12 +8703,12 @@
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
-          <t>21,164263.502164;31,0.0;41,22054.70043</t>
+          <t>21,164263;31,0;41,22054</t>
         </is>
       </c>
       <c r="AK15" t="inlineStr">
         <is>
-          <t>21,0.0;31,0.0;41,0.0</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
     </row>
@@ -8822,12 +8822,12 @@
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
-          <t>21,428908;31,0.0;41,51368</t>
+          <t>21,428908;31,0;41,51368</t>
         </is>
       </c>
       <c r="AK16" t="inlineStr">
         <is>
-          <t>21,0.0;31,0.0;41,0.0</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
     </row>
@@ -8941,12 +8941,12 @@
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
-          <t>21,428908;31,0.0;41,51368</t>
+          <t>21,428908;31,0;41,51368</t>
         </is>
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>21,0.0;31,0.0;41,0.0</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
     </row>
@@ -9011,31 +9011,31 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>245256.89714088</v>
+        <v>234256.89714088</v>
       </c>
       <c r="U18" t="n">
-        <v>39998.98318668</v>
+        <v>38058.98318668</v>
       </c>
       <c r="V18" t="n">
-        <v>27211.87945504</v>
+        <v>26460.87945504</v>
       </c>
       <c r="W18" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="X18" t="n">
-        <v>470</v>
+        <v>370</v>
       </c>
       <c r="Y18" t="n">
         <v>15000</v>
       </c>
       <c r="Z18" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="AA18" t="n">
-        <v>2070</v>
+        <v>1570</v>
       </c>
       <c r="AB18" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="AC18" t="n">
         <v>0</v>
@@ -9060,12 +9060,12 @@
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
-          <t>21,10546.10984226;31,0.0;41,1290.90973648</t>
+          <t>21,10546;31,0;41,1290</t>
         </is>
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>21,0.0;31,0.0;41,0.0</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
     </row>
@@ -9130,31 +9130,31 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>323990.38726192</v>
+        <v>300890.38726192</v>
       </c>
       <c r="U19" t="n">
-        <v>52858.83709008</v>
+        <v>48784.83709008</v>
       </c>
       <c r="V19" t="n">
-        <v>36467.3372898</v>
+        <v>34890.5372898</v>
       </c>
       <c r="W19" t="n">
-        <v>2300</v>
+        <v>1250</v>
       </c>
       <c r="X19" t="n">
-        <v>860</v>
+        <v>590</v>
       </c>
       <c r="Y19" t="n">
         <v>15000</v>
       </c>
       <c r="Z19" t="n">
-        <v>2360</v>
+        <v>1550</v>
       </c>
       <c r="AA19" t="n">
-        <v>3740</v>
+        <v>2390</v>
       </c>
       <c r="AB19" t="n">
-        <v>1080</v>
+        <v>675</v>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
@@ -9179,12 +9179,12 @@
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
-          <t>21,13539.19312392;31,0.0;41,1657.3952264</t>
+          <t>21,13539;31,0;41,1657</t>
         </is>
       </c>
       <c r="AK19" t="inlineStr">
         <is>
-          <t>21,0.0;31,0.0;41,0.0</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
     </row>
@@ -9298,12 +9298,12 @@
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
-          <t>21,24755.265971679997;31,0.0;41,3141.4979872699996</t>
+          <t>21,24755;31,0;41,3141</t>
         </is>
       </c>
       <c r="AK20" t="inlineStr">
         <is>
-          <t>21,0.0;31,0.0;41,0.0</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
     </row>
@@ -9417,12 +9417,12 @@
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
-          <t>21,33174.95029417;31,0.0;41,4264.57922525</t>
+          <t>21,33174;31,0;41,4264</t>
         </is>
       </c>
       <c r="AK21" t="inlineStr">
         <is>
-          <t>21,0.0;31,0.0;41,0.0</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
     </row>
@@ -9536,12 +9536,12 @@
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
-          <t>21,40412.130176;31,0.0;41,5296.37279213</t>
+          <t>21,40412;31,0;41,5296</t>
         </is>
       </c>
       <c r="AK22" t="inlineStr">
         <is>
-          <t>21,0.0;31,0.0;41,0.0</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
     </row>
@@ -9655,12 +9655,12 @@
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
-          <t>21,47805;31,0.0;41,5904</t>
+          <t>21,47805;31,0;41,5904</t>
         </is>
       </c>
       <c r="AK23" t="inlineStr">
         <is>
-          <t>21,0.0;31,0.0;41,0.0</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
     </row>

--- a/opm_hero_property/heroes/84.xlsx
+++ b/opm_hero_property/heroes/84.xlsx
@@ -6883,7 +6883,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK23"/>
+  <dimension ref="A1:AS25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7077,6 +7077,46 @@
           <t>type_aura</t>
         </is>
       </c>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t>基础战力</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>装备战力</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>天赋战力</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
+          <t>研究所战力</t>
+        </is>
+      </c>
+      <c r="AP1" t="inlineStr">
+        <is>
+          <t>职阶战力</t>
+        </is>
+      </c>
+      <c r="AQ1" t="inlineStr">
+        <is>
+          <t>机械核心战力</t>
+        </is>
+      </c>
+      <c r="AR1" t="inlineStr">
+        <is>
+          <t>限制器战力</t>
+        </is>
+      </c>
+      <c r="AS1" t="inlineStr">
+        <is>
+          <t>总战力</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -7085,31 +7125,31 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>16</v>
+      </c>
+      <c r="C2" t="n">
+        <v>400</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2" t="n">
         <v>5</v>
       </c>
-      <c r="C2" t="n">
-        <v>81</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>5</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
       <c r="G2" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -7121,106 +7161,138 @@
         <v>2</v>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="O2" t="n">
-        <v>81</v>
+        <v>400</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>3,2,1,1,0,0,0,0,0</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T2" t="n">
-        <v>7702.096</v>
+        <v>5580609.7870372</v>
       </c>
       <c r="U2" t="n">
-        <v>1498.0486</v>
+        <v>892696.9429516</v>
       </c>
       <c r="V2" t="n">
-        <v>600.8469</v>
+        <v>733905.7461</v>
       </c>
       <c r="W2" t="n">
-        <v>562</v>
+        <v>2300</v>
       </c>
       <c r="X2" t="n">
-        <v>80</v>
+        <v>1910</v>
       </c>
       <c r="Y2" t="n">
         <v>15000</v>
       </c>
       <c r="Z2" t="n">
-        <v>240</v>
+        <v>2760</v>
       </c>
       <c r="AA2" t="n">
+        <v>4790</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
         <v>400</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>120</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>81</v>
       </c>
       <c r="AE2" t="n">
         <v>5000</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI2" t="n">
         <v>0</v>
       </c>
-      <c r="AJ2" t="inlineStr"/>
-      <c r="AK2" t="inlineStr"/>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>21,428908;31,0;41,51368</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AL2" t="n">
+        <v>11423759.111765</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>1351778.99351712</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>481003.7</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>2005624.4</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>598995.57819612</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>15975430.73347824</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>pve</t>
+          <t>pvp</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C3" t="n">
-        <v>121</v>
+        <v>400</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G3" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -7232,73 +7304,105 @@
         <v>2</v>
       </c>
       <c r="N3" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="O3" t="n">
-        <v>121</v>
+        <v>280</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>3,2,2,2,0,0,0,0,0</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T3" t="n">
-        <v>20731.2324</v>
+        <v>703198.4572794</v>
       </c>
       <c r="U3" t="n">
-        <v>3713.906</v>
+        <v>131231.1443292</v>
       </c>
       <c r="V3" t="n">
-        <v>1855.408</v>
+        <v>94597.2133</v>
       </c>
       <c r="W3" t="n">
-        <v>673</v>
+        <v>2300</v>
       </c>
       <c r="X3" t="n">
-        <v>160</v>
+        <v>1910</v>
       </c>
       <c r="Y3" t="n">
         <v>15000</v>
       </c>
       <c r="Z3" t="n">
-        <v>480</v>
+        <v>2760</v>
       </c>
       <c r="AA3" t="n">
-        <v>800</v>
+        <v>4790</v>
       </c>
       <c r="AB3" t="n">
-        <v>240</v>
+        <v>1080</v>
       </c>
       <c r="AC3" t="n">
         <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>121</v>
+        <v>280</v>
       </c>
       <c r="AE3" t="n">
         <v>5000</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI3" t="n">
         <v>0</v>
       </c>
-      <c r="AJ3" t="inlineStr"/>
-      <c r="AK3" t="inlineStr"/>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>21,47805;31,0;41,5904</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AL3" t="n">
+        <v>1295393.278005</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>152686.06378044</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>68760.45</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>467803.6</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>68968.98784044001</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>2167881.32962588</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -7307,16 +7411,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -7325,10 +7429,10 @@
         <v>-1</v>
       </c>
       <c r="H4" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -7343,10 +7447,10 @@
         <v>2</v>
       </c>
       <c r="N4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O4" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -7357,50 +7461,50 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>4,3,2,2,0,0,0,0,0</t>
+          <t>3,2,1,1,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>59177.9436</v>
+        <v>7702.096</v>
       </c>
       <c r="U4" t="n">
-        <v>9634.424999999999</v>
+        <v>1498.0486</v>
       </c>
       <c r="V4" t="n">
-        <v>5841.724</v>
+        <v>600.8469</v>
       </c>
       <c r="W4" t="n">
-        <v>1000</v>
+        <v>562</v>
       </c>
       <c r="X4" t="n">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="Y4" t="n">
         <v>15000</v>
       </c>
       <c r="Z4" t="n">
-        <v>900</v>
+        <v>240</v>
       </c>
       <c r="AA4" t="n">
-        <v>1500</v>
+        <v>400</v>
       </c>
       <c r="AB4" t="n">
-        <v>450</v>
+        <v>120</v>
       </c>
       <c r="AC4" t="n">
         <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="AE4" t="n">
         <v>5000</v>
       </c>
       <c r="AF4" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH4" t="n">
         <v>0</v>
@@ -7410,6 +7514,30 @@
       </c>
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
+      <c r="AL4" t="n">
+        <v>18756.851015</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>4549.950000000001</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>23306.801015</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -7418,16 +7546,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -7436,13 +7564,13 @@
         <v>-1</v>
       </c>
       <c r="H5" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -7454,10 +7582,10 @@
         <v>2</v>
       </c>
       <c r="N5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O5" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -7468,66 +7596,82 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>4,3,2,2,0,1,0,0,1</t>
+          <t>3,2,2,2,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>68779.24572928</v>
+        <v>20731.2324</v>
       </c>
       <c r="U5" t="n">
-        <v>10556.02636</v>
+        <v>3713.906</v>
       </c>
       <c r="V5" t="n">
-        <v>7090.4270684</v>
+        <v>1855.408</v>
       </c>
       <c r="W5" t="n">
-        <v>1000</v>
+        <v>673</v>
       </c>
       <c r="X5" t="n">
-        <v>370</v>
+        <v>160</v>
       </c>
       <c r="Y5" t="n">
         <v>15000</v>
       </c>
       <c r="Z5" t="n">
-        <v>900</v>
+        <v>480</v>
       </c>
       <c r="AA5" t="n">
-        <v>1570</v>
+        <v>800</v>
       </c>
       <c r="AB5" t="n">
-        <v>450</v>
+        <v>240</v>
       </c>
       <c r="AC5" t="n">
         <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="AE5" t="n">
         <v>5000</v>
       </c>
       <c r="AF5" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AH5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI5" t="n">
         <v>0</v>
       </c>
-      <c r="AJ5" t="inlineStr">
-        <is>
-          <t>21,14132;31,0;41,1842</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>21,0;31,0;41,0</t>
-        </is>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="n">
+        <v>47919.8798</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>11988.35</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>59908.22979999999</v>
       </c>
     </row>
     <row r="6">
@@ -7552,16 +7696,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H6" t="n">
         <v>15</v>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -7583,27 +7727,27 @@
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>4,3,2,2,1,1,0,0,2</t>
+          <t>4,3,2,2,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>78506.36168936</v>
+        <v>59177.9436</v>
       </c>
       <c r="U6" t="n">
-        <v>11531.63112</v>
+        <v>9634.424999999999</v>
       </c>
       <c r="V6" t="n">
-        <v>8339.5863092</v>
+        <v>5841.724</v>
       </c>
       <c r="W6" t="n">
         <v>1000</v>
       </c>
       <c r="X6" t="n">
-        <v>370</v>
+        <v>300</v>
       </c>
       <c r="Y6" t="n">
         <v>15000</v>
@@ -7612,7 +7756,7 @@
         <v>900</v>
       </c>
       <c r="AA6" t="n">
-        <v>1570</v>
+        <v>1500</v>
       </c>
       <c r="AB6" t="n">
         <v>450</v>
@@ -7630,23 +7774,39 @@
         <v>15</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI6" t="n">
         <v>0</v>
       </c>
-      <c r="AJ6" t="inlineStr">
-        <is>
-          <t>21,28265;31,0;41,3685</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>21,0;31,0;41,0</t>
-        </is>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="n">
+        <v>115570.7891</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>32846</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>6160.5</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>9640.6</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>164217.8891</v>
       </c>
     </row>
     <row r="7">
@@ -7656,31 +7816,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>-1</v>
       </c>
       <c r="H7" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I7" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -7692,10 +7852,10 @@
         <v>2</v>
       </c>
       <c r="N7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O7" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -7706,59 +7866,91 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>5,3,3,3,0,2,1,0,0</t>
+          <t>4,3,2,2,0,1,0,0,1</t>
         </is>
       </c>
       <c r="T7" t="n">
-        <v>254686.3246</v>
+        <v>68779.24572928</v>
       </c>
       <c r="U7" t="n">
-        <v>38149.672</v>
+        <v>10556.02636</v>
       </c>
       <c r="V7" t="n">
-        <v>28833.4431</v>
+        <v>7090.4270684</v>
       </c>
       <c r="W7" t="n">
-        <v>2300</v>
+        <v>1000</v>
       </c>
       <c r="X7" t="n">
-        <v>930</v>
+        <v>370</v>
       </c>
       <c r="Y7" t="n">
         <v>15000</v>
       </c>
       <c r="Z7" t="n">
-        <v>2160</v>
+        <v>900</v>
       </c>
       <c r="AA7" t="n">
-        <v>3810</v>
+        <v>1570</v>
       </c>
       <c r="AB7" t="n">
-        <v>1080</v>
+        <v>450</v>
       </c>
       <c r="AC7" t="n">
         <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="AE7" t="n">
         <v>5000</v>
       </c>
       <c r="AF7" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI7" t="n">
         <v>0</v>
       </c>
-      <c r="AJ7" t="inlineStr"/>
-      <c r="AK7" t="inlineStr"/>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>21,14132;31,0;41,1842</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AL7" t="n">
+        <v>115570.7891</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>32846</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>6160.5</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>9815.6</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>23140.39415658</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>187533.28325658</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -7767,31 +7959,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>15</v>
+      </c>
+      <c r="I8" t="n">
         <v>5</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>25</v>
-      </c>
-      <c r="I8" t="n">
-        <v>15</v>
-      </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -7803,10 +7995,10 @@
         <v>2</v>
       </c>
       <c r="N8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O8" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -7817,66 +8009,90 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>5,3,3,3,1,2,1,0,1</t>
+          <t>4,3,2,2,1,1,0,0,2</t>
         </is>
       </c>
       <c r="T8" t="n">
-        <v>265593.58353188</v>
+        <v>78506.36168936</v>
       </c>
       <c r="U8" t="n">
-        <v>39364.0747264</v>
+        <v>11531.63112</v>
       </c>
       <c r="V8" t="n">
-        <v>30163.45703671</v>
+        <v>8339.5863092</v>
       </c>
       <c r="W8" t="n">
-        <v>2300</v>
+        <v>1000</v>
       </c>
       <c r="X8" t="n">
-        <v>930</v>
+        <v>370</v>
       </c>
       <c r="Y8" t="n">
         <v>15000</v>
       </c>
       <c r="Z8" t="n">
-        <v>2160</v>
+        <v>900</v>
       </c>
       <c r="AA8" t="n">
-        <v>3810</v>
+        <v>1570</v>
       </c>
       <c r="AB8" t="n">
-        <v>1080</v>
+        <v>450</v>
       </c>
       <c r="AC8" t="n">
         <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="AE8" t="n">
         <v>5000</v>
       </c>
       <c r="AF8" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AH8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI8" t="n">
         <v>0</v>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>21,15766;31,0;41,2029</t>
+          <t>21,28265;31,0;41,3685</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
           <t>21,0;31,0;41,0</t>
         </is>
+      </c>
+      <c r="AL8" t="n">
+        <v>115570.7891</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>32846</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>498.4372908</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>6160.5</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>9815.6</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>46283.41130446</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>211174.73769526</v>
       </c>
     </row>
     <row r="9">
@@ -7901,7 +8117,7 @@
         <v>5</v>
       </c>
       <c r="G9" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="H9" t="n">
         <v>25</v>
@@ -7910,7 +8126,7 @@
         <v>15</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -7932,21 +8148,21 @@
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>5,3,3,3,2,2,1,0,5</t>
+          <t>5,3,3,3,0,2,1,0,0</t>
         </is>
       </c>
       <c r="T9" t="n">
-        <v>312700.9091022</v>
+        <v>253897.3246</v>
       </c>
       <c r="U9" t="n">
-        <v>45569.125888</v>
+        <v>38306.672</v>
       </c>
       <c r="V9" t="n">
-        <v>35493.27024079</v>
+        <v>28960.4431</v>
       </c>
       <c r="W9" t="n">
         <v>2300</v>
@@ -7958,7 +8174,7 @@
         <v>15000</v>
       </c>
       <c r="Z9" t="n">
-        <v>2360</v>
+        <v>2160</v>
       </c>
       <c r="AA9" t="n">
         <v>3810</v>
@@ -7982,20 +8198,36 @@
         <v>15</v>
       </c>
       <c r="AH9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="n">
         <v>0</v>
       </c>
-      <c r="AJ9" t="inlineStr">
-        <is>
-          <t>21,78834;31,0;41,10146</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>21,0;31,0;41,0</t>
-        </is>
+      <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr"/>
+      <c r="AL9" t="n">
+        <v>528021.309225</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>39618.60000000001</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>697029.9092250001</v>
       </c>
     </row>
     <row r="10">
@@ -8020,7 +8252,7 @@
         <v>5</v>
       </c>
       <c r="G10" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>25</v>
@@ -8029,7 +8261,7 @@
         <v>15</v>
       </c>
       <c r="J10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -8051,21 +8283,21 @@
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>5,3,3,3,3,2,1,0,5</t>
+          <t>5,3,3,3,1,2,1,0,1</t>
         </is>
       </c>
       <c r="T10" t="n">
-        <v>318498.0588402</v>
+        <v>264804.58353188</v>
       </c>
       <c r="U10" t="n">
-        <v>47814.859648</v>
+        <v>39521.0747264</v>
       </c>
       <c r="V10" t="n">
-        <v>35493.27024079</v>
+        <v>30290.45703671</v>
       </c>
       <c r="W10" t="n">
         <v>2300</v>
@@ -8077,7 +8309,7 @@
         <v>15000</v>
       </c>
       <c r="Z10" t="n">
-        <v>2560</v>
+        <v>2160</v>
       </c>
       <c r="AA10" t="n">
         <v>3810</v>
@@ -8101,20 +8333,44 @@
         <v>15</v>
       </c>
       <c r="AH10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI10" t="n">
         <v>0</v>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>21,78834;31,0;41,10146</t>
+          <t>21,15766;31,0;41,2029</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
           <t>21,0;31,0;41,0</t>
         </is>
+      </c>
+      <c r="AL10" t="n">
+        <v>528021.309225</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>2129.2712682</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>39618.60000000001</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>24804.9466119225</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>723964.1271051225</v>
       </c>
     </row>
     <row r="11">
@@ -8139,7 +8395,7 @@
         <v>5</v>
       </c>
       <c r="G11" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H11" t="n">
         <v>25</v>
@@ -8148,7 +8404,7 @@
         <v>15</v>
       </c>
       <c r="J11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8170,21 +8426,21 @@
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,1,0,10</t>
+          <t>5,3,3,3,2,2,1,0,5</t>
         </is>
       </c>
       <c r="T11" t="n">
-        <v>374773.498421</v>
+        <v>311911.9091022</v>
       </c>
       <c r="U11" t="n">
-        <v>54897.453472</v>
+        <v>45726.125888</v>
       </c>
       <c r="V11" t="n">
-        <v>42026.25043746</v>
+        <v>35620.27024079</v>
       </c>
       <c r="W11" t="n">
         <v>2300</v>
@@ -8196,7 +8452,7 @@
         <v>15000</v>
       </c>
       <c r="Z11" t="n">
-        <v>2760</v>
+        <v>2360</v>
       </c>
       <c r="AA11" t="n">
         <v>3810</v>
@@ -8220,20 +8476,44 @@
         <v>15</v>
       </c>
       <c r="AH11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AI11" t="n">
         <v>0</v>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>21,155061;31,0;41,20007</t>
+          <t>21,78834;31,0;41,10146</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
           <t>21,0;31,0;41,0</t>
         </is>
+      </c>
+      <c r="AL11" t="n">
+        <v>528021.309225</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>23591.9839502</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>39618.60000000001</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>124080.8384387425</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>844702.7316139427</v>
       </c>
     </row>
     <row r="12">
@@ -8258,13 +8538,13 @@
         <v>5</v>
       </c>
       <c r="G12" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H12" t="n">
         <v>25</v>
       </c>
       <c r="I12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J12" t="n">
         <v>5</v>
@@ -8289,36 +8569,36 @@
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,0,0,5</t>
+          <t>5,3,3,3,3,2,1,0,5</t>
         </is>
       </c>
       <c r="T12" t="n">
-        <v>324295.2085782</v>
+        <v>317709.0588402</v>
       </c>
       <c r="U12" t="n">
-        <v>50060.593408</v>
+        <v>47971.859648</v>
       </c>
       <c r="V12" t="n">
-        <v>35493.27024079</v>
+        <v>35620.27024079</v>
       </c>
       <c r="W12" t="n">
         <v>2300</v>
       </c>
       <c r="X12" t="n">
-        <v>860</v>
+        <v>930</v>
       </c>
       <c r="Y12" t="n">
         <v>15000</v>
       </c>
       <c r="Z12" t="n">
-        <v>2760</v>
+        <v>2560</v>
       </c>
       <c r="AA12" t="n">
-        <v>3740</v>
+        <v>3810</v>
       </c>
       <c r="AB12" t="n">
         <v>1080</v>
@@ -8336,7 +8616,7 @@
         <v>25</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH12" t="n">
         <v>5</v>
@@ -8354,6 +8634,30 @@
           <t>21,0;31,0;41,0</t>
         </is>
       </c>
+      <c r="AL12" t="n">
+        <v>528021.309225</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>45054.6966322</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>39618.60000000001</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>124080.8384387425</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>866165.4442959426</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8362,10 +8666,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -8380,13 +8684,13 @@
         <v>30</v>
       </c>
       <c r="H13" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I13" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="J13" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -8398,10 +8702,10 @@
         <v>2</v>
       </c>
       <c r="N13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O13" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -8412,23 +8716,23 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,0,6</t>
+          <t>5,3,3,3,4,2,1,0,10</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>473980.34289748</v>
+        <v>373984.498421</v>
       </c>
       <c r="U13" t="n">
-        <v>73240.79369471999</v>
+        <v>55054.453472</v>
       </c>
       <c r="V13" t="n">
-        <v>56665.50735466</v>
+        <v>42153.25043746</v>
       </c>
       <c r="W13" t="n">
         <v>2300</v>
       </c>
       <c r="X13" t="n">
-        <v>1000</v>
+        <v>930</v>
       </c>
       <c r="Y13" t="n">
         <v>15000</v>
@@ -8437,7 +8741,7 @@
         <v>2760</v>
       </c>
       <c r="AA13" t="n">
-        <v>3880</v>
+        <v>3810</v>
       </c>
       <c r="AB13" t="n">
         <v>1080</v>
@@ -8446,32 +8750,56 @@
         <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="AE13" t="n">
         <v>5000</v>
       </c>
       <c r="AF13" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="AG13" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="AH13" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AI13" t="n">
         <v>0</v>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
-          <t>21,100891;31,0;41,13112</t>
+          <t>21,155061;31,0;41,20007</t>
         </is>
       </c>
       <c r="AK13" t="inlineStr">
         <is>
           <t>21,0;31,0;41,0</t>
         </is>
+      </c>
+      <c r="AL13" t="n">
+        <v>528021.309225</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>66517.40931420001</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>39618.60000000001</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>245498.098853995</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>1009045.417393195</v>
       </c>
     </row>
     <row r="14">
@@ -8481,10 +8809,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -8499,13 +8827,13 @@
         <v>30</v>
       </c>
       <c r="H14" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I14" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="J14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8517,10 +8845,10 @@
         <v>2</v>
       </c>
       <c r="N14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -8531,23 +8859,23 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,1,7</t>
+          <t>5,3,3,3,4,2,0,0,5</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>484773.76493876</v>
+        <v>323506.2085782</v>
       </c>
       <c r="U14" t="n">
-        <v>74274.83610304</v>
+        <v>50217.593408</v>
       </c>
       <c r="V14" t="n">
-        <v>58063.64178072001</v>
+        <v>35620.27024079</v>
       </c>
       <c r="W14" t="n">
         <v>2300</v>
       </c>
       <c r="X14" t="n">
-        <v>1070</v>
+        <v>860</v>
       </c>
       <c r="Y14" t="n">
         <v>15000</v>
@@ -8556,7 +8884,7 @@
         <v>2760</v>
       </c>
       <c r="AA14" t="n">
-        <v>3950</v>
+        <v>3740</v>
       </c>
       <c r="AB14" t="n">
         <v>1080</v>
@@ -8565,32 +8893,56 @@
         <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="AE14" t="n">
         <v>5000</v>
       </c>
       <c r="AF14" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="AG14" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="AH14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AI14" t="n">
         <v>0</v>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
-          <t>21,117706;31,0;41,15302</t>
+          <t>21,78834;31,0;41,10146</t>
         </is>
       </c>
       <c r="AK14" t="inlineStr">
         <is>
           <t>21,0;31,0;41,0</t>
         </is>
+      </c>
+      <c r="AL14" t="n">
+        <v>528021.309225</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>66517.40931420001</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>39443.60000000001</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>124080.8384387425</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>887453.1569779424</v>
       </c>
     </row>
     <row r="15">
@@ -8600,10 +8952,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -8618,13 +8970,13 @@
         <v>30</v>
       </c>
       <c r="H15" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="I15" t="n">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="J15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -8636,10 +8988,10 @@
         <v>2</v>
       </c>
       <c r="N15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O15" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -8650,23 +9002,23 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,3,3,3,8</t>
+          <t>5,3,3,3,4,2,2,0,6</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>1119531.07349472</v>
+        <v>476480.34289748</v>
       </c>
       <c r="U15" t="n">
-        <v>174250.48751504</v>
+        <v>74048.79369471999</v>
       </c>
       <c r="V15" t="n">
-        <v>144828.74567</v>
+        <v>57439.50735466</v>
       </c>
       <c r="W15" t="n">
         <v>2300</v>
       </c>
       <c r="X15" t="n">
-        <v>1350</v>
+        <v>1000</v>
       </c>
       <c r="Y15" t="n">
         <v>15000</v>
@@ -8675,7 +9027,7 @@
         <v>2760</v>
       </c>
       <c r="AA15" t="n">
-        <v>4230</v>
+        <v>3880</v>
       </c>
       <c r="AB15" t="n">
         <v>1080</v>
@@ -8684,32 +9036,56 @@
         <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="AE15" t="n">
         <v>5000</v>
       </c>
       <c r="AF15" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="AG15" t="n">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="AH15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AI15" t="n">
         <v>0</v>
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
-          <t>21,164263;31,0;41,22054</t>
+          <t>21,100891;31,0;41,13112</t>
         </is>
       </c>
       <c r="AK15" t="inlineStr">
         <is>
           <t>21,0;31,0;41,0</t>
         </is>
+      </c>
+      <c r="AL15" t="n">
+        <v>815948.48199</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>99186.72989892002</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>33220.2</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>112125.4</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>155923.424791423</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>1330673.186680343</v>
       </c>
     </row>
     <row r="16">
@@ -8719,10 +9095,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C16" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -8737,13 +9113,13 @@
         <v>30</v>
       </c>
       <c r="H16" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="I16" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="J16" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -8755,10 +9131,10 @@
         <v>2</v>
       </c>
       <c r="N16" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O16" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -8769,23 +9145,23 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,2,2,1,7</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>5445732.7870372</v>
+        <v>487273.76493876</v>
       </c>
       <c r="U16" t="n">
-        <v>868968.9429516</v>
+        <v>75082.83610304</v>
       </c>
       <c r="V16" t="n">
-        <v>712065.7461</v>
+        <v>58837.64178072001</v>
       </c>
       <c r="W16" t="n">
         <v>2300</v>
       </c>
       <c r="X16" t="n">
-        <v>1910</v>
+        <v>1070</v>
       </c>
       <c r="Y16" t="n">
         <v>15000</v>
@@ -8794,7 +9170,7 @@
         <v>2760</v>
       </c>
       <c r="AA16" t="n">
-        <v>4790</v>
+        <v>3950</v>
       </c>
       <c r="AB16" t="n">
         <v>1080</v>
@@ -8803,32 +9179,56 @@
         <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="AE16" t="n">
         <v>5000</v>
       </c>
       <c r="AF16" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="AG16" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="AH16" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI16" t="n">
         <v>0</v>
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
-          <t>21,428908;31,0;41,51368</t>
+          <t>21,117706;31,0;41,15302</t>
         </is>
       </c>
       <c r="AK16" t="inlineStr">
         <is>
           <t>21,0;31,0;41,0</t>
         </is>
+      </c>
+      <c r="AL16" t="n">
+        <v>815948.48199</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>99186.72989892002</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>33220.2</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>112300.4</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>181891.012399956</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>1356815.774288876</v>
       </c>
     </row>
     <row r="17">
@@ -8838,10 +9238,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -8856,13 +9256,13 @@
         <v>30</v>
       </c>
       <c r="H17" t="n">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="I17" t="n">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="J17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -8874,10 +9274,10 @@
         <v>2</v>
       </c>
       <c r="N17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O17" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -8888,23 +9288,23 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,3,3,3,8</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>8769276.074582599</v>
+        <v>1157026.07349472</v>
       </c>
       <c r="U17" t="n">
-        <v>1409531.9408672</v>
+        <v>181107.48751504</v>
       </c>
       <c r="V17" t="n">
-        <v>1134626.5052</v>
+        <v>151461.74567</v>
       </c>
       <c r="W17" t="n">
         <v>2300</v>
       </c>
       <c r="X17" t="n">
-        <v>2820</v>
+        <v>1350</v>
       </c>
       <c r="Y17" t="n">
         <v>15000</v>
@@ -8913,7 +9313,7 @@
         <v>2760</v>
       </c>
       <c r="AA17" t="n">
-        <v>5700</v>
+        <v>4230</v>
       </c>
       <c r="AB17" t="n">
         <v>1080</v>
@@ -8922,66 +9322,90 @@
         <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="AE17" t="n">
         <v>5000</v>
       </c>
       <c r="AF17" t="n">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="AG17" t="n">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="AH17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI17" t="n">
         <v>0</v>
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
-          <t>21,428908;31,0;41,51368</t>
+          <t>21,164263;31,0;41,22054</t>
         </is>
       </c>
       <c r="AK17" t="inlineStr">
         <is>
           <t>21,0;31,0;41,0</t>
         </is>
+      </c>
+      <c r="AL17" t="n">
+        <v>1877782.69408</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>218714.15967984</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>155697.55</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>683503.6000000001</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>241459.821191156</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>3291426.774950996</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>pvp</t>
+          <t>pve</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>161</v>
+        <v>400</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H18" t="n">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="I18" t="n">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -8993,114 +9417,138 @@
         <v>2</v>
       </c>
       <c r="N18" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="O18" t="n">
-        <v>256</v>
+        <v>400</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>5,3,3,3,1,1,0,0,1</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>234256.89714088</v>
+        <v>5580609.7870372</v>
       </c>
       <c r="U18" t="n">
-        <v>38058.98318668</v>
+        <v>892696.9429516</v>
       </c>
       <c r="V18" t="n">
-        <v>26460.87945504</v>
+        <v>733905.7461</v>
       </c>
       <c r="W18" t="n">
-        <v>1000</v>
+        <v>2300</v>
       </c>
       <c r="X18" t="n">
-        <v>370</v>
+        <v>1910</v>
       </c>
       <c r="Y18" t="n">
         <v>15000</v>
       </c>
       <c r="Z18" t="n">
-        <v>900</v>
+        <v>2760</v>
       </c>
       <c r="AA18" t="n">
-        <v>1570</v>
+        <v>4790</v>
       </c>
       <c r="AB18" t="n">
-        <v>450</v>
+        <v>1080</v>
       </c>
       <c r="AC18" t="n">
         <v>0</v>
       </c>
       <c r="AD18" t="n">
-        <v>256</v>
+        <v>400</v>
       </c>
       <c r="AE18" t="n">
         <v>5000</v>
       </c>
       <c r="AF18" t="n">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="AG18" t="n">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="AH18" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AI18" t="n">
         <v>0</v>
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
-          <t>21,10546;31,0;41,1290</t>
+          <t>21,428908;31,0;41,51368</t>
         </is>
       </c>
       <c r="AK18" t="inlineStr">
         <is>
           <t>21,0;31,0;41,0</t>
         </is>
+      </c>
+      <c r="AL18" t="n">
+        <v>11423759.111765</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>1351778.99351712</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>481003.7</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>2005624.4</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>598995.57819612</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>15975430.73347824</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>pvp</t>
+          <t>pve</t>
         </is>
       </c>
       <c r="B19" t="n">
+        <v>16</v>
+      </c>
+      <c r="C19" t="n">
+        <v>500</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
         <v>10</v>
-      </c>
-      <c r="C19" t="n">
-        <v>200</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>9</v>
       </c>
       <c r="F19" t="n">
         <v>5</v>
       </c>
       <c r="G19" t="n">
+        <v>30</v>
+      </c>
+      <c r="H19" t="n">
+        <v>160</v>
+      </c>
+      <c r="I19" t="n">
+        <v>150</v>
+      </c>
+      <c r="J19" t="n">
         <v>10</v>
-      </c>
-      <c r="H19" t="n">
-        <v>20</v>
-      </c>
-      <c r="I19" t="n">
-        <v>10</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -9112,80 +9560,104 @@
         <v>2</v>
       </c>
       <c r="N19" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="O19" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>5,3,3,3,2,2,0,0,2</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>300890.38726192</v>
+        <v>9078994.074582599</v>
       </c>
       <c r="U19" t="n">
-        <v>48784.83709008</v>
+        <v>1463564.9408672</v>
       </c>
       <c r="V19" t="n">
-        <v>34890.5372898</v>
+        <v>1183858.5052</v>
       </c>
       <c r="W19" t="n">
-        <v>1250</v>
+        <v>2300</v>
       </c>
       <c r="X19" t="n">
-        <v>590</v>
+        <v>2820</v>
       </c>
       <c r="Y19" t="n">
         <v>15000</v>
       </c>
       <c r="Z19" t="n">
-        <v>1550</v>
+        <v>2760</v>
       </c>
       <c r="AA19" t="n">
-        <v>2390</v>
+        <v>5700</v>
       </c>
       <c r="AB19" t="n">
-        <v>675</v>
+        <v>1080</v>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
       </c>
       <c r="AD19" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="AE19" t="n">
         <v>5000</v>
       </c>
       <c r="AF19" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="AG19" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH19" t="n">
         <v>10</v>
       </c>
-      <c r="AH19" t="n">
-        <v>2</v>
-      </c>
       <c r="AI19" t="n">
         <v>0</v>
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
-          <t>21,13539;31,0;41,1657</t>
+          <t>21,428908;31,0;41,51368</t>
         </is>
       </c>
       <c r="AK19" t="inlineStr">
         <is>
           <t>21,0;31,0;41,0</t>
         </is>
+      </c>
+      <c r="AL19" t="n">
+        <v>18533165.85501</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>2197544.06645628</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>1061573.2</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>3469133.2</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>626622.3</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>26002307.57146628</v>
       </c>
     </row>
     <row r="20">
@@ -9195,31 +9667,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C20" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>15</v>
+      </c>
+      <c r="I20" t="n">
         <v>5</v>
       </c>
-      <c r="G20" t="n">
-        <v>20</v>
-      </c>
-      <c r="H20" t="n">
-        <v>25</v>
-      </c>
-      <c r="I20" t="n">
-        <v>15</v>
-      </c>
       <c r="J20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9231,80 +9703,104 @@
         <v>2</v>
       </c>
       <c r="N20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O20" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>5,3,3,3,3,2,1,0,5</t>
+          <t>5,3,3,3,1,1,0,0,1</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>415121.7693496</v>
+        <v>234256.89714088</v>
       </c>
       <c r="U20" t="n">
-        <v>66854.5567234</v>
+        <v>38058.98318668</v>
       </c>
       <c r="V20" t="n">
-        <v>50203.22458974</v>
+        <v>26460.87945504</v>
       </c>
       <c r="W20" t="n">
-        <v>2300</v>
+        <v>1000</v>
       </c>
       <c r="X20" t="n">
-        <v>930</v>
+        <v>370</v>
       </c>
       <c r="Y20" t="n">
         <v>15000</v>
       </c>
       <c r="Z20" t="n">
-        <v>2560</v>
+        <v>900</v>
       </c>
       <c r="AA20" t="n">
-        <v>3810</v>
+        <v>1570</v>
       </c>
       <c r="AB20" t="n">
-        <v>1080</v>
+        <v>450</v>
       </c>
       <c r="AC20" t="n">
         <v>0</v>
       </c>
       <c r="AD20" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="AE20" t="n">
         <v>5000</v>
       </c>
       <c r="AF20" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG20" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AH20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI20" t="n">
         <v>0</v>
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
-          <t>21,24755;31,0;41,3141</t>
+          <t>21,10546;31,0;41,1290</t>
         </is>
       </c>
       <c r="AK20" t="inlineStr">
         <is>
           <t>21,0;31,0;41,0</t>
         </is>
+      </c>
+      <c r="AL20" t="n">
+        <v>553314.4961900001</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>32846</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>2357.12051562</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>14696.9</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>33824.8</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>17122.121289832</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>654161.4379954521</v>
       </c>
     </row>
     <row r="21">
@@ -9314,31 +9810,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C21" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F21" t="n">
         <v>5</v>
       </c>
       <c r="G21" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H21" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I21" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J21" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9350,80 +9846,104 @@
         <v>2</v>
       </c>
       <c r="N21" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="O21" t="n">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,1,7</t>
+          <t>5,3,3,3,2,2,0,0,2</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>473762.72783928</v>
+        <v>300890.38726192</v>
       </c>
       <c r="U21" t="n">
-        <v>79797.22774247998</v>
+        <v>48784.83709008</v>
       </c>
       <c r="V21" t="n">
-        <v>57613.86948685</v>
+        <v>34890.5372898</v>
       </c>
       <c r="W21" t="n">
-        <v>2300</v>
+        <v>1250</v>
       </c>
       <c r="X21" t="n">
-        <v>1070</v>
+        <v>590</v>
       </c>
       <c r="Y21" t="n">
         <v>15000</v>
       </c>
       <c r="Z21" t="n">
-        <v>2760</v>
+        <v>1550</v>
       </c>
       <c r="AA21" t="n">
-        <v>3950</v>
+        <v>2390</v>
       </c>
       <c r="AB21" t="n">
-        <v>1080</v>
+        <v>675</v>
       </c>
       <c r="AC21" t="n">
         <v>0</v>
       </c>
       <c r="AD21" t="n">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="AE21" t="n">
         <v>5000</v>
       </c>
       <c r="AF21" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="AG21" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AH21" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AI21" t="n">
         <v>0</v>
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
-          <t>21,33174;31,0;41,4264</t>
+          <t>21,13539;31,0;41,1657</t>
         </is>
       </c>
       <c r="AK21" t="inlineStr">
         <is>
           <t>21,0;31,0;41,0</t>
         </is>
+      </c>
+      <c r="AL21" t="n">
+        <v>659233.83612</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>49269</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>29921.48581856</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>19028.1</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>67649.60000000001</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>20590.580661262</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>845692.602599822</v>
       </c>
     </row>
     <row r="22">
@@ -9433,10 +9953,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C22" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -9448,16 +9968,16 @@
         <v>5</v>
       </c>
       <c r="G22" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H22" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="I22" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="J22" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -9469,46 +9989,46 @@
         <v>2</v>
       </c>
       <c r="N22" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="O22" t="n">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,3,3,3,8</t>
+          <t>5,3,3,3,3,2,1,0,5</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>550022.535136</v>
+        <v>415121.7693496</v>
       </c>
       <c r="U22" t="n">
-        <v>96583.85819456</v>
+        <v>66854.5567234</v>
       </c>
       <c r="V22" t="n">
-        <v>69805.54547428001</v>
+        <v>50203.22458974</v>
       </c>
       <c r="W22" t="n">
         <v>2300</v>
       </c>
       <c r="X22" t="n">
-        <v>1350</v>
+        <v>930</v>
       </c>
       <c r="Y22" t="n">
         <v>15000</v>
       </c>
       <c r="Z22" t="n">
-        <v>2760</v>
+        <v>2560</v>
       </c>
       <c r="AA22" t="n">
-        <v>4230</v>
+        <v>3810</v>
       </c>
       <c r="AB22" t="n">
         <v>1080</v>
@@ -9517,32 +10037,56 @@
         <v>0</v>
       </c>
       <c r="AD22" t="n">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="AE22" t="n">
         <v>5000</v>
       </c>
       <c r="AF22" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="AG22" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="AH22" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AI22" t="n">
         <v>0</v>
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
-          <t>21,40412;31,0;41,5296</t>
+          <t>21,24755;31,0;41,3141</t>
         </is>
       </c>
       <c r="AK22" t="inlineStr">
         <is>
           <t>21,0;31,0;41,0</t>
         </is>
+      </c>
+      <c r="AL22" t="n">
+        <v>839524.0627049999</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>69261.07941123999</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>23382.7</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>97518.39999999999</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>33765.56001582499</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>1177720.752132065</v>
       </c>
     </row>
     <row r="23">
@@ -9552,10 +10096,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C23" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -9570,13 +10114,13 @@
         <v>30</v>
       </c>
       <c r="H23" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="I23" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="J23" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9588,10 +10132,10 @@
         <v>2</v>
       </c>
       <c r="N23" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O23" t="n">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9602,23 +10146,23 @@
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,2,2,1,7</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>703198.4572794</v>
+        <v>473762.72783928</v>
       </c>
       <c r="U23" t="n">
-        <v>131231.1443292</v>
+        <v>79797.22774247998</v>
       </c>
       <c r="V23" t="n">
-        <v>94597.2133</v>
+        <v>57613.86948685</v>
       </c>
       <c r="W23" t="n">
         <v>2300</v>
       </c>
       <c r="X23" t="n">
-        <v>1910</v>
+        <v>1070</v>
       </c>
       <c r="Y23" t="n">
         <v>15000</v>
@@ -9627,7 +10171,7 @@
         <v>2760</v>
       </c>
       <c r="AA23" t="n">
-        <v>4790</v>
+        <v>3950</v>
       </c>
       <c r="AB23" t="n">
         <v>1080</v>
@@ -9636,32 +10180,342 @@
         <v>0</v>
       </c>
       <c r="AD23" t="n">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="AE23" t="n">
         <v>5000</v>
       </c>
       <c r="AF23" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>21,33174;31,0;41,4264</t>
+        </is>
+      </c>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AL23" t="n">
+        <v>917344.559845</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>110709.40140186</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>30363.65</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>152526</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>43584.7875649195</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>1368797.348811779</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>15</v>
+      </c>
+      <c r="C24" t="n">
+        <v>300</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>10</v>
+      </c>
+      <c r="F24" t="n">
+        <v>5</v>
+      </c>
+      <c r="G24" t="n">
+        <v>30</v>
+      </c>
+      <c r="H24" t="n">
+        <v>55</v>
+      </c>
+      <c r="I24" t="n">
+        <v>45</v>
+      </c>
+      <c r="J24" t="n">
+        <v>8</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>84</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="n">
+        <v>15</v>
+      </c>
+      <c r="O24" t="n">
+        <v>270</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="n">
+        <v>30</v>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,3,3,3,8</t>
+        </is>
+      </c>
+      <c r="T24" t="n">
+        <v>550022.535136</v>
+      </c>
+      <c r="U24" t="n">
+        <v>96583.85819456</v>
+      </c>
+      <c r="V24" t="n">
+        <v>69805.54547428001</v>
+      </c>
+      <c r="W24" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X24" t="n">
+        <v>1350</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>2760</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>4230</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>270</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ24" t="inlineStr">
+        <is>
+          <t>21,40412;31,0;41,5296</t>
+        </is>
+      </c>
+      <c r="AK24" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AL24" t="n">
+        <v>1040161.193335</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>124190.72992368</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>43173.05</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>257621.2</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>52271.919896894</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>1631687.043155574</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>16</v>
+      </c>
+      <c r="C25" t="n">
+        <v>400</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>10</v>
+      </c>
+      <c r="F25" t="n">
+        <v>5</v>
+      </c>
+      <c r="G25" t="n">
+        <v>30</v>
+      </c>
+      <c r="H25" t="n">
         <v>95</v>
       </c>
-      <c r="AG23" t="n">
+      <c r="I25" t="n">
         <v>85</v>
       </c>
-      <c r="AH23" t="n">
+      <c r="J25" t="n">
         <v>10</v>
       </c>
-      <c r="AI23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ23" t="inlineStr">
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>84</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="n">
+        <v>16</v>
+      </c>
+      <c r="O25" t="n">
+        <v>280</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="n">
+        <v>30</v>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T25" t="n">
+        <v>703198.4572794</v>
+      </c>
+      <c r="U25" t="n">
+        <v>131231.1443292</v>
+      </c>
+      <c r="V25" t="n">
+        <v>94597.2133</v>
+      </c>
+      <c r="W25" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X25" t="n">
+        <v>1910</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>2760</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>4790</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>280</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ25" t="inlineStr">
         <is>
           <t>21,47805;31,0;41,5904</t>
         </is>
       </c>
-      <c r="AK23" t="inlineStr">
+      <c r="AK25" t="inlineStr">
         <is>
           <t>21,0;31,0;41,0</t>
         </is>
+      </c>
+      <c r="AL25" t="n">
+        <v>1295393.278005</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>152686.06378044</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>68760.45</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>467803.6</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>68968.98784044001</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>2167881.32962588</v>
       </c>
     </row>
   </sheetData>

--- a/opm_hero_property/heroes/84.xlsx
+++ b/opm_hero_property/heroes/84.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="21600" windowHeight="12920" tabRatio="721" firstSheet="2" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -15,33 +15,371 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mechanical" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="limiter" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="status" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525" fullCalcOnLoad="1" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="21">
     <font>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <color theme="1"/>
+      <sz val="12"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -49,15 +387,305 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
@@ -342,7 +970,6 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -358,7 +985,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="12.8"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -376,7 +1003,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="12.8"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -493,7 +1120,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="12.8"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -810,11 +1437,11 @@
   </sheetPr>
   <dimension ref="A1:AE17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="12.8"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -1425,7 +2052,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>21,55039;31,10685;41,4314</t>
+          <t>21,82558;31,16027;41,6471</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1440,7 +2067,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>21,6568;31,1241;41,563</t>
+          <t>21,9852;31,1861;41,844</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -1454,13 +2081,13 @@
         </is>
       </c>
       <c r="N6" t="n">
-        <v>55039</v>
+        <v>82558</v>
       </c>
       <c r="O6" t="n">
-        <v>10685</v>
+        <v>16027</v>
       </c>
       <c r="P6" t="n">
-        <v>4314</v>
+        <v>6471</v>
       </c>
       <c r="Q6" t="n">
         <v>114737</v>
@@ -1481,13 +2108,13 @@
         <v>2352</v>
       </c>
       <c r="W6" t="n">
-        <v>6568</v>
+        <v>9852</v>
       </c>
       <c r="X6" t="n">
-        <v>1241</v>
+        <v>1861</v>
       </c>
       <c r="Y6" t="n">
-        <v>563</v>
+        <v>844</v>
       </c>
       <c r="Z6" t="n">
         <v>13692</v>
@@ -1532,7 +2159,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>21,62316;31,11792;41,5561</t>
+          <t>21,93474;31,17688;41,8341</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1547,7 +2174,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>21,7357;31,1362;41,702</t>
+          <t>21,11035;31,2043;41,1053</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -1561,13 +2188,13 @@
         </is>
       </c>
       <c r="N7" t="n">
-        <v>62316</v>
+        <v>93474</v>
       </c>
       <c r="O7" t="n">
-        <v>11792</v>
+        <v>17688</v>
       </c>
       <c r="P7" t="n">
-        <v>5561</v>
+        <v>8341</v>
       </c>
       <c r="Q7" t="n">
         <v>129906</v>
@@ -1588,13 +2215,13 @@
         <v>3033</v>
       </c>
       <c r="W7" t="n">
-        <v>7357</v>
+        <v>11035</v>
       </c>
       <c r="X7" t="n">
-        <v>1362</v>
+        <v>2043</v>
       </c>
       <c r="Y7" t="n">
-        <v>702</v>
+        <v>1053</v>
       </c>
       <c r="Z7" t="n">
         <v>15337</v>
@@ -1639,7 +2266,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>21,71730;31,13044;41,7286</t>
+          <t>21,107595;31,19566;41,10929</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1654,7 +2281,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>21,8375;31,1497;41,893</t>
+          <t>21,12562;31,2245;41,1339</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1668,13 +2295,13 @@
         </is>
       </c>
       <c r="N8" t="n">
-        <v>71730</v>
+        <v>107595</v>
       </c>
       <c r="O8" t="n">
-        <v>13044</v>
+        <v>19566</v>
       </c>
       <c r="P8" t="n">
-        <v>7286</v>
+        <v>10929</v>
       </c>
       <c r="Q8" t="n">
         <v>149531</v>
@@ -1695,13 +2322,13 @@
         <v>3973</v>
       </c>
       <c r="W8" t="n">
-        <v>8375</v>
+        <v>12562</v>
       </c>
       <c r="X8" t="n">
-        <v>1497</v>
+        <v>2245</v>
       </c>
       <c r="Y8" t="n">
-        <v>893</v>
+        <v>1339</v>
       </c>
       <c r="Z8" t="n">
         <v>17458</v>
@@ -1746,7 +2373,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>21,83831;31,14486;41,9608</t>
+          <t>21,125746;31,21729;41,14412</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1761,7 +2388,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>21,9678;31,1653;41,1150</t>
+          <t>21,14517;31,2479;41,1725</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1775,13 +2402,13 @@
         </is>
       </c>
       <c r="N9" t="n">
-        <v>83831</v>
+        <v>125746</v>
       </c>
       <c r="O9" t="n">
-        <v>14486</v>
+        <v>21729</v>
       </c>
       <c r="P9" t="n">
-        <v>9608</v>
+        <v>14412</v>
       </c>
       <c r="Q9" t="n">
         <v>174757</v>
@@ -1802,13 +2429,13 @@
         <v>5239</v>
       </c>
       <c r="W9" t="n">
-        <v>9678</v>
+        <v>14517</v>
       </c>
       <c r="X9" t="n">
-        <v>1653</v>
+        <v>2479</v>
       </c>
       <c r="Y9" t="n">
-        <v>1150</v>
+        <v>1725</v>
       </c>
       <c r="Z9" t="n">
         <v>20175</v>
@@ -1853,7 +2480,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>21,92900;31,15255;41,11542</t>
+          <t>21,139350;31,22882;41,17313</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1868,7 +2495,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>21,10654;31,1736;41,1363</t>
+          <t>21,15981;31,2604;41,2044</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1882,13 +2509,13 @@
         </is>
       </c>
       <c r="N10" t="n">
-        <v>92900</v>
+        <v>139350</v>
       </c>
       <c r="O10" t="n">
-        <v>15255</v>
+        <v>22882</v>
       </c>
       <c r="P10" t="n">
-        <v>11542</v>
+        <v>17313</v>
       </c>
       <c r="Q10" t="n">
         <v>193663</v>
@@ -1909,13 +2536,13 @@
         <v>6294</v>
       </c>
       <c r="W10" t="n">
-        <v>10654</v>
+        <v>15981</v>
       </c>
       <c r="X10" t="n">
-        <v>1736</v>
+        <v>2604</v>
       </c>
       <c r="Y10" t="n">
-        <v>1363</v>
+        <v>2044</v>
       </c>
       <c r="Z10" t="n">
         <v>22211</v>
@@ -1960,7 +2587,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>21,103963;31,16168;41,13915</t>
+          <t>21,155944;31,24252;41,20872</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1975,7 +2602,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>21,11844;31,1834;41,1626</t>
+          <t>21,17766;31,2751;41,2439</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1989,13 +2616,13 @@
         </is>
       </c>
       <c r="N11" t="n">
-        <v>103963</v>
+        <v>155944</v>
       </c>
       <c r="O11" t="n">
-        <v>16168</v>
+        <v>24252</v>
       </c>
       <c r="P11" t="n">
-        <v>13915</v>
+        <v>20872</v>
       </c>
       <c r="Q11" t="n">
         <v>216725</v>
@@ -2016,13 +2643,13 @@
         <v>7588</v>
       </c>
       <c r="W11" t="n">
-        <v>11844</v>
+        <v>17766</v>
       </c>
       <c r="X11" t="n">
-        <v>1834</v>
+        <v>2751</v>
       </c>
       <c r="Y11" t="n">
-        <v>1626</v>
+        <v>2439</v>
       </c>
       <c r="Z11" t="n">
         <v>24691</v>
@@ -2067,7 +2694,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>21,124342;31,18091;41,18140</t>
+          <t>21,186513;31,27136;41,27210</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -2082,7 +2709,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>21,14033;31,2040;41,2092</t>
+          <t>21,21049;31,3060;41,3138</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -2096,13 +2723,13 @@
         </is>
       </c>
       <c r="N12" t="n">
-        <v>124342</v>
+        <v>186513</v>
       </c>
       <c r="O12" t="n">
-        <v>18091</v>
+        <v>27136</v>
       </c>
       <c r="P12" t="n">
-        <v>18140</v>
+        <v>27210</v>
       </c>
       <c r="Q12" t="n">
         <v>259208</v>
@@ -2123,13 +2750,13 @@
         <v>9892</v>
       </c>
       <c r="W12" t="n">
-        <v>14033</v>
+        <v>21049</v>
       </c>
       <c r="X12" t="n">
-        <v>2040</v>
+        <v>3060</v>
       </c>
       <c r="Y12" t="n">
-        <v>2092</v>
+        <v>3138</v>
       </c>
       <c r="Z12" t="n">
         <v>29255</v>
@@ -2174,7 +2801,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>21,127500;31,18478;41,18739</t>
+          <t>21,191250;31,27717;41,28108</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -2189,7 +2816,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>21,14383;31,2083;41,2159</t>
+          <t>21,21574;31,3124;41,3238</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -2203,13 +2830,13 @@
         </is>
       </c>
       <c r="N13" t="n">
-        <v>127500</v>
+        <v>191250</v>
       </c>
       <c r="O13" t="n">
-        <v>18478</v>
+        <v>27717</v>
       </c>
       <c r="P13" t="n">
-        <v>18739</v>
+        <v>28108</v>
       </c>
       <c r="Q13" t="n">
         <v>265790</v>
@@ -2230,13 +2857,13 @@
         <v>10219</v>
       </c>
       <c r="W13" t="n">
-        <v>14383</v>
+        <v>21574</v>
       </c>
       <c r="X13" t="n">
-        <v>2083</v>
+        <v>3124</v>
       </c>
       <c r="Y13" t="n">
-        <v>2159</v>
+        <v>3238</v>
       </c>
       <c r="Z13" t="n">
         <v>29983</v>
@@ -2281,7 +2908,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>21,130657;31,18864;41,19337</t>
+          <t>21,195985;31,28296;41,29005</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -2296,7 +2923,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>21,14732;31,2126;41,2227</t>
+          <t>21,22098;31,3189;41,3340</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -2310,13 +2937,13 @@
         </is>
       </c>
       <c r="N14" t="n">
-        <v>130657</v>
+        <v>195985</v>
       </c>
       <c r="O14" t="n">
-        <v>18864</v>
+        <v>28296</v>
       </c>
       <c r="P14" t="n">
-        <v>19337</v>
+        <v>29005</v>
       </c>
       <c r="Q14" t="n">
         <v>272372</v>
@@ -2337,13 +2964,13 @@
         <v>10545</v>
       </c>
       <c r="W14" t="n">
-        <v>14732</v>
+        <v>22098</v>
       </c>
       <c r="X14" t="n">
-        <v>2126</v>
+        <v>3189</v>
       </c>
       <c r="Y14" t="n">
-        <v>2227</v>
+        <v>3340</v>
       </c>
       <c r="Z14" t="n">
         <v>30712</v>
@@ -2388,7 +3015,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>21,133810;31,19250;41,19936</t>
+          <t>21,200715;31,28875;41,29904</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -2403,7 +3030,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>21,15081;31,2169;41,2294</t>
+          <t>21,22621;31,3253;41,3441</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -2417,13 +3044,13 @@
         </is>
       </c>
       <c r="N15" t="n">
-        <v>133810</v>
+        <v>200715</v>
       </c>
       <c r="O15" t="n">
-        <v>19250</v>
+        <v>28875</v>
       </c>
       <c r="P15" t="n">
-        <v>19936</v>
+        <v>29904</v>
       </c>
       <c r="Q15" t="n">
         <v>278945</v>
@@ -2444,13 +3071,13 @@
         <v>10872</v>
       </c>
       <c r="W15" t="n">
-        <v>15081</v>
+        <v>22621</v>
       </c>
       <c r="X15" t="n">
-        <v>2169</v>
+        <v>3253</v>
       </c>
       <c r="Y15" t="n">
-        <v>2294</v>
+        <v>3441</v>
       </c>
       <c r="Z15" t="n">
         <v>31439</v>
@@ -2495,7 +3122,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>21,136967;31,19636;41,20535</t>
+          <t>21,205450;31,29454;41,30802</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -2510,7 +3137,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>21,15431;31,2212;41,2362</t>
+          <t>21,23146;31,3318;41,3543</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -2524,13 +3151,13 @@
         </is>
       </c>
       <c r="N16" t="n">
-        <v>136967</v>
+        <v>205450</v>
       </c>
       <c r="O16" t="n">
-        <v>19636</v>
+        <v>29454</v>
       </c>
       <c r="P16" t="n">
-        <v>20535</v>
+        <v>30802</v>
       </c>
       <c r="Q16" t="n">
         <v>285526</v>
@@ -2551,13 +3178,13 @@
         <v>11198</v>
       </c>
       <c r="W16" t="n">
-        <v>15431</v>
+        <v>23146</v>
       </c>
       <c r="X16" t="n">
-        <v>2212</v>
+        <v>3318</v>
       </c>
       <c r="Y16" t="n">
-        <v>2362</v>
+        <v>3543</v>
       </c>
       <c r="Z16" t="n">
         <v>32167</v>
@@ -2602,7 +3229,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>21,140125;31,20022;41,21134</t>
+          <t>21,210187;31,30033;41,31701</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -2617,7 +3244,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>21,15780;31,2254;41,2429</t>
+          <t>21,23670;31,3381;41,3643</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -2631,13 +3258,13 @@
         </is>
       </c>
       <c r="N17" t="n">
-        <v>140125</v>
+        <v>210187</v>
       </c>
       <c r="O17" t="n">
-        <v>20022</v>
+        <v>30033</v>
       </c>
       <c r="P17" t="n">
-        <v>21134</v>
+        <v>31701</v>
       </c>
       <c r="Q17" t="n">
         <v>292108</v>
@@ -2658,13 +3285,13 @@
         <v>11525</v>
       </c>
       <c r="W17" t="n">
-        <v>15780</v>
+        <v>23670</v>
       </c>
       <c r="X17" t="n">
-        <v>2254</v>
+        <v>3381</v>
       </c>
       <c r="Y17" t="n">
-        <v>2429</v>
+        <v>3643</v>
       </c>
       <c r="Z17" t="n">
         <v>32896</v>
@@ -2702,7 +3329,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="12.8"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -4167,7 +4794,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="12.8"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -5219,11 +5846,11 @@
   </sheetPr>
   <dimension ref="A1:AQ11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AL11" sqref="AL11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="12.8"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -5447,22 +6074,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9400</v>
+        <v>14100</v>
       </c>
       <c r="C2" t="n">
-        <v>900</v>
+        <v>1350</v>
       </c>
       <c r="D2" t="n">
-        <v>1230</v>
+        <v>1845</v>
       </c>
       <c r="E2" t="n">
+        <v>72</v>
+      </c>
+      <c r="F2" t="n">
         <v>48</v>
       </c>
-      <c r="F2" t="n">
-        <v>32</v>
-      </c>
       <c r="G2" t="n">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="H2" t="n">
         <v>13680</v>
@@ -5501,22 +6128,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>6004</v>
+        <v>9006</v>
       </c>
       <c r="U2" t="n">
-        <v>699</v>
+        <v>1049</v>
       </c>
       <c r="V2" t="n">
-        <v>759</v>
+        <v>1139</v>
       </c>
       <c r="W2" t="n">
+        <v>63</v>
+      </c>
+      <c r="X2" t="n">
         <v>42</v>
       </c>
-      <c r="X2" t="n">
-        <v>28</v>
-      </c>
       <c r="Y2" t="n">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="Z2" t="n">
         <v>8692</v>
@@ -5556,7 +6183,7 @@
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>21,9400;31,900;41,1230;22,48;32,32;42,41</t>
+          <t>21,14100;31,1350;41,1845;22,72;32,48;42,62</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
@@ -5571,7 +6198,7 @@
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>21,6004;31,699;41,759;22,42;32,28;42,36</t>
+          <t>21,9006;31,1049;41,1139;22,63;32,42;42,54</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -5590,22 +6217,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>18800</v>
+        <v>28200</v>
       </c>
       <c r="C3" t="n">
-        <v>1800</v>
+        <v>2700</v>
       </c>
       <c r="D3" t="n">
-        <v>2460</v>
+        <v>3690</v>
       </c>
       <c r="E3" t="n">
+        <v>144</v>
+      </c>
+      <c r="F3" t="n">
         <v>96</v>
       </c>
-      <c r="F3" t="n">
-        <v>64</v>
-      </c>
       <c r="G3" t="n">
-        <v>83</v>
+        <v>125</v>
       </c>
       <c r="H3" t="n">
         <v>27360</v>
@@ -5644,22 +6271,22 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>6289</v>
+        <v>9434</v>
       </c>
       <c r="U3" t="n">
-        <v>732</v>
+        <v>1098</v>
       </c>
       <c r="V3" t="n">
-        <v>802</v>
+        <v>1203</v>
       </c>
       <c r="W3" t="n">
+        <v>126</v>
+      </c>
+      <c r="X3" t="n">
         <v>84</v>
       </c>
-      <c r="X3" t="n">
-        <v>56</v>
-      </c>
       <c r="Y3" t="n">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="Z3" t="n">
         <v>9105</v>
@@ -5699,7 +6326,7 @@
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>21,18800;31,1800;41,2460;22,96;32,64;42,83</t>
+          <t>21,28200;31,2700;41,3690;22,144;32,96;42,125</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
@@ -5714,7 +6341,7 @@
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>21,6289;31,732;41,802;22,84;32,56;42,73</t>
+          <t>21,9434;31,1098;41,1203;22,126;32,84;42,110</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -5733,22 +6360,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>28200</v>
+        <v>42300</v>
       </c>
       <c r="C4" t="n">
-        <v>2700</v>
+        <v>4050</v>
       </c>
       <c r="D4" t="n">
-        <v>3690</v>
+        <v>5535</v>
       </c>
       <c r="E4" t="n">
+        <v>216</v>
+      </c>
+      <c r="F4" t="n">
         <v>144</v>
       </c>
-      <c r="F4" t="n">
-        <v>96</v>
-      </c>
       <c r="G4" t="n">
-        <v>125</v>
+        <v>188</v>
       </c>
       <c r="H4" t="n">
         <v>41040</v>
@@ -5787,22 +6414,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>6588</v>
+        <v>9882</v>
       </c>
       <c r="U4" t="n">
-        <v>767</v>
+        <v>1151</v>
       </c>
       <c r="V4" t="n">
-        <v>848</v>
+        <v>1272</v>
       </c>
       <c r="W4" t="n">
+        <v>189</v>
+      </c>
+      <c r="X4" t="n">
         <v>126</v>
       </c>
-      <c r="X4" t="n">
-        <v>84</v>
-      </c>
       <c r="Y4" t="n">
-        <v>109</v>
+        <v>164</v>
       </c>
       <c r="Z4" t="n">
         <v>9537</v>
@@ -5842,7 +6469,7 @@
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>21,28200;31,2700;41,3690;22,144;32,96;42,125</t>
+          <t>21,42300;31,4050;41,5535;22,216;32,144;42,188</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
@@ -5857,7 +6484,7 @@
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>21,6588;31,767;41,848;22,126;32,84;42,109</t>
+          <t>21,9882;31,1151;41,1272;22,189;32,126;42,164</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -5876,22 +6503,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>37600</v>
+        <v>56400</v>
       </c>
       <c r="C5" t="n">
-        <v>3600</v>
+        <v>5400</v>
       </c>
       <c r="D5" t="n">
-        <v>4920</v>
+        <v>7380</v>
       </c>
       <c r="E5" t="n">
+        <v>288</v>
+      </c>
+      <c r="F5" t="n">
         <v>192</v>
       </c>
-      <c r="F5" t="n">
-        <v>128</v>
-      </c>
       <c r="G5" t="n">
-        <v>167</v>
+        <v>251</v>
       </c>
       <c r="H5" t="n">
         <v>54720</v>
@@ -5930,22 +6557,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>7057</v>
+        <v>10586</v>
       </c>
       <c r="U5" t="n">
-        <v>821</v>
+        <v>1232</v>
       </c>
       <c r="V5" t="n">
-        <v>922</v>
+        <v>1383</v>
       </c>
       <c r="W5" t="n">
+        <v>252</v>
+      </c>
+      <c r="X5" t="n">
         <v>168</v>
       </c>
-      <c r="X5" t="n">
-        <v>112</v>
-      </c>
       <c r="Y5" t="n">
-        <v>146</v>
+        <v>219</v>
       </c>
       <c r="Z5" t="n">
         <v>10217</v>
@@ -5985,7 +6612,7 @@
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>21,37600;31,3600;41,4920;22,192;32,128;42,167</t>
+          <t>21,56400;31,5400;41,7380;22,288;32,192;42,251</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
@@ -6000,7 +6627,7 @@
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>21,7057;31,821;41,922;22,168;32,112;42,146</t>
+          <t>21,10586;31,1232;41,1383;22,252;32,168;42,219</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -6019,22 +6646,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>47000</v>
+        <v>70500</v>
       </c>
       <c r="C6" t="n">
-        <v>4500</v>
+        <v>6750</v>
       </c>
       <c r="D6" t="n">
-        <v>6150</v>
+        <v>9225</v>
       </c>
       <c r="E6" t="n">
+        <v>360</v>
+      </c>
+      <c r="F6" t="n">
         <v>240</v>
       </c>
-      <c r="F6" t="n">
-        <v>160</v>
-      </c>
       <c r="G6" t="n">
-        <v>209</v>
+        <v>314</v>
       </c>
       <c r="H6" t="n">
         <v>68400</v>
@@ -6073,22 +6700,22 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>7393</v>
+        <v>11090</v>
       </c>
       <c r="U6" t="n">
-        <v>860</v>
+        <v>1290</v>
       </c>
       <c r="V6" t="n">
-        <v>973</v>
+        <v>1460</v>
       </c>
       <c r="W6" t="n">
+        <v>315</v>
+      </c>
+      <c r="X6" t="n">
         <v>210</v>
       </c>
-      <c r="X6" t="n">
-        <v>140</v>
-      </c>
       <c r="Y6" t="n">
-        <v>182</v>
+        <v>273</v>
       </c>
       <c r="Z6" t="n">
         <v>10703</v>
@@ -6128,7 +6755,7 @@
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>21,47000;31,4500;41,6150;22,240;32,160;42,209</t>
+          <t>21,70500;31,6750;41,9225;22,360;32,240;42,314</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
@@ -6143,7 +6770,7 @@
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>21,7393;31,860;41,973;22,210;32,140;42,182</t>
+          <t>21,11090;31,1290;41,1460;22,315;32,210;42,273</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
@@ -6162,22 +6789,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>56400</v>
+        <v>84600</v>
       </c>
       <c r="C7" t="n">
-        <v>5400</v>
+        <v>8100</v>
       </c>
       <c r="D7" t="n">
-        <v>7380</v>
+        <v>11070</v>
       </c>
       <c r="E7" t="n">
+        <v>432</v>
+      </c>
+      <c r="F7" t="n">
         <v>288</v>
       </c>
-      <c r="F7" t="n">
-        <v>192</v>
-      </c>
       <c r="G7" t="n">
-        <v>251</v>
+        <v>377</v>
       </c>
       <c r="H7" t="n">
         <v>82080</v>
@@ -6216,22 +6843,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>7745</v>
+        <v>11618</v>
       </c>
       <c r="U7" t="n">
-        <v>901</v>
+        <v>1352</v>
       </c>
       <c r="V7" t="n">
-        <v>1027</v>
+        <v>1541</v>
       </c>
       <c r="W7" t="n">
+        <v>378</v>
+      </c>
+      <c r="X7" t="n">
         <v>252</v>
       </c>
-      <c r="X7" t="n">
-        <v>168</v>
-      </c>
       <c r="Y7" t="n">
-        <v>219</v>
+        <v>329</v>
       </c>
       <c r="Z7" t="n">
         <v>11213</v>
@@ -6271,7 +6898,7 @@
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>21,56400;31,5400;41,7380;22,288;32,192;42,251</t>
+          <t>21,84600;31,8100;41,11070;22,432;32,288;42,377</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
@@ -6286,7 +6913,7 @@
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>21,7745;31,901;41,1027;22,252;32,168;42,219</t>
+          <t>21,11618;31,1352;41,1541;22,378;32,252;42,329</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
@@ -6305,22 +6932,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>65800</v>
+        <v>98700</v>
       </c>
       <c r="C8" t="n">
-        <v>6300</v>
+        <v>9450</v>
       </c>
       <c r="D8" t="n">
-        <v>8610</v>
+        <v>12915</v>
       </c>
       <c r="E8" t="n">
+        <v>504</v>
+      </c>
+      <c r="F8" t="n">
         <v>336</v>
       </c>
-      <c r="F8" t="n">
-        <v>224</v>
-      </c>
       <c r="G8" t="n">
-        <v>292</v>
+        <v>438</v>
       </c>
       <c r="H8" t="n">
         <v>95760</v>
@@ -6359,22 +6986,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>8114</v>
+        <v>12171</v>
       </c>
       <c r="U8" t="n">
-        <v>943</v>
+        <v>1415</v>
       </c>
       <c r="V8" t="n">
-        <v>1084</v>
+        <v>1626</v>
       </c>
       <c r="W8" t="n">
+        <v>441</v>
+      </c>
+      <c r="X8" t="n">
         <v>294</v>
       </c>
-      <c r="X8" t="n">
-        <v>196</v>
-      </c>
       <c r="Y8" t="n">
-        <v>255</v>
+        <v>383</v>
       </c>
       <c r="Z8" t="n">
         <v>11747</v>
@@ -6414,7 +7041,7 @@
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>21,65800;31,6300;41,8610;22,336;32,224;42,292</t>
+          <t>21,98700;31,9450;41,12915;22,504;32,336;42,438</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
@@ -6429,7 +7056,7 @@
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>21,8114;31,943;41,1084;22,294;32,196;42,255</t>
+          <t>21,12171;31,1415;41,1626;22,441;32,294;42,383</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
@@ -6448,22 +7075,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>75200</v>
+        <v>112800</v>
       </c>
       <c r="C9" t="n">
-        <v>7200</v>
+        <v>10800</v>
       </c>
       <c r="D9" t="n">
-        <v>9840</v>
+        <v>14760</v>
       </c>
       <c r="E9" t="n">
+        <v>567</v>
+      </c>
+      <c r="F9" t="n">
         <v>378</v>
       </c>
-      <c r="F9" t="n">
-        <v>252</v>
-      </c>
       <c r="G9" t="n">
-        <v>329</v>
+        <v>494</v>
       </c>
       <c r="H9" t="n">
         <v>109440</v>
@@ -6502,22 +7129,22 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>8823</v>
+        <v>13235</v>
       </c>
       <c r="U9" t="n">
-        <v>1026</v>
+        <v>1539</v>
       </c>
       <c r="V9" t="n">
-        <v>1195</v>
+        <v>1793</v>
       </c>
       <c r="W9" t="n">
+        <v>504</v>
+      </c>
+      <c r="X9" t="n">
         <v>336</v>
       </c>
-      <c r="X9" t="n">
-        <v>224</v>
-      </c>
       <c r="Y9" t="n">
-        <v>292</v>
+        <v>438</v>
       </c>
       <c r="Z9" t="n">
         <v>12773</v>
@@ -6557,7 +7184,7 @@
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>21,75200;31,7200;41,9840;22,378;32,252;42,329</t>
+          <t>21,112800;31,10800;41,14760;22,567;32,378;42,494</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
@@ -6572,7 +7199,7 @@
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>21,8823;31,1026;41,1195;22,336;32,224;42,292</t>
+          <t>21,13235;31,1539;41,1793;22,504;32,336;42,438</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
@@ -6591,22 +7218,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>84600</v>
+        <v>126900</v>
       </c>
       <c r="C10" t="n">
-        <v>8100</v>
+        <v>12150</v>
       </c>
       <c r="D10" t="n">
-        <v>11070</v>
+        <v>16605</v>
       </c>
       <c r="E10" t="n">
+        <v>603</v>
+      </c>
+      <c r="F10" t="n">
         <v>402</v>
       </c>
-      <c r="F10" t="n">
-        <v>268</v>
-      </c>
       <c r="G10" t="n">
-        <v>350</v>
+        <v>525</v>
       </c>
       <c r="H10" t="n">
         <v>123120</v>
@@ -6645,22 +7272,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>9553</v>
+        <v>14330</v>
       </c>
       <c r="U10" t="n">
-        <v>1111</v>
+        <v>1667</v>
       </c>
       <c r="V10" t="n">
-        <v>1310</v>
+        <v>1965</v>
       </c>
       <c r="W10" t="n">
+        <v>567</v>
+      </c>
+      <c r="X10" t="n">
         <v>378</v>
       </c>
-      <c r="X10" t="n">
-        <v>252</v>
-      </c>
       <c r="Y10" t="n">
-        <v>328</v>
+        <v>492</v>
       </c>
       <c r="Z10" t="n">
         <v>13830</v>
@@ -6700,7 +7327,7 @@
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>21,84600;31,8100;41,11070;22,402;32,268;42,350</t>
+          <t>21,126900;31,12150;41,16605;22,603;32,402;42,525</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
@@ -6715,7 +7342,7 @@
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>21,9553;31,1111;41,1310;22,378;32,252;42,328</t>
+          <t>21,14330;31,1667;41,1965;22,567;32,378;42,492</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
@@ -6734,22 +7361,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>94000</v>
+        <v>141000</v>
       </c>
       <c r="C11" t="n">
-        <v>9000</v>
+        <v>13500</v>
       </c>
       <c r="D11" t="n">
-        <v>12300</v>
+        <v>18450</v>
       </c>
       <c r="E11" t="n">
+        <v>630</v>
+      </c>
+      <c r="F11" t="n">
         <v>420</v>
       </c>
-      <c r="F11" t="n">
-        <v>280</v>
-      </c>
       <c r="G11" t="n">
-        <v>366</v>
+        <v>549</v>
       </c>
       <c r="H11" t="n">
         <v>136800</v>
@@ -6788,22 +7415,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>10298</v>
+        <v>15447</v>
       </c>
       <c r="U11" t="n">
-        <v>1198</v>
+        <v>1797</v>
       </c>
       <c r="V11" t="n">
-        <v>1428</v>
+        <v>2142</v>
       </c>
       <c r="W11" t="n">
+        <v>630</v>
+      </c>
+      <c r="X11" t="n">
         <v>420</v>
       </c>
-      <c r="X11" t="n">
-        <v>280</v>
-      </c>
       <c r="Y11" t="n">
-        <v>365</v>
+        <v>548</v>
       </c>
       <c r="Z11" t="n">
         <v>14909</v>
@@ -6843,7 +7470,7 @@
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>21,94000;31,9000;41,12300;22,420;32,280;42,366</t>
+          <t>21,141000;31,13500;41,18450;22,630;32,420;42,549</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
@@ -6858,7 +7485,7 @@
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>21,10298;31,1198;41,1428;22,420;32,280;42,365</t>
+          <t>21,15447;31,1797;41,2142;22,630;32,420;42,548</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
@@ -6885,11 +7512,11 @@
   </sheetPr>
   <dimension ref="A1:AS25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AL17" sqref="AL17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="12.8"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -7179,13 +7806,13 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>5580609.7870372</v>
+        <v>5697671.7870372</v>
       </c>
       <c r="U2" t="n">
-        <v>892696.9429516</v>
+        <v>905206.006589</v>
       </c>
       <c r="V2" t="n">
-        <v>733905.7461</v>
+        <v>750622.7461</v>
       </c>
       <c r="W2" t="n">
         <v>2300</v>
@@ -7255,10 +7882,10 @@
         <v>0</v>
       </c>
       <c r="AR2" t="n">
-        <v>598995.57819612</v>
+        <v>898492.86729418</v>
       </c>
       <c r="AS2" t="n">
-        <v>15975430.73347824</v>
+        <v>16274928.0225763</v>
       </c>
     </row>
     <row r="3">
@@ -7322,13 +7949,13 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>703198.4572794</v>
+        <v>716237.4572794</v>
       </c>
       <c r="U3" t="n">
-        <v>131231.1443292</v>
+        <v>132732.103593</v>
       </c>
       <c r="V3" t="n">
-        <v>94597.2133</v>
+        <v>96525.2133</v>
       </c>
       <c r="W3" t="n">
         <v>2300</v>
@@ -7398,10 +8025,10 @@
         <v>0</v>
       </c>
       <c r="AR3" t="n">
-        <v>68968.98784044001</v>
+        <v>103450.60676066</v>
       </c>
       <c r="AS3" t="n">
-        <v>2167881.32962588</v>
+        <v>2202362.9485461</v>
       </c>
     </row>
     <row r="4">
@@ -7870,13 +8497,13 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>68779.24572928</v>
+        <v>73579.89679391999</v>
       </c>
       <c r="U7" t="n">
-        <v>10556.02636</v>
+        <v>11016.82704</v>
       </c>
       <c r="V7" t="n">
-        <v>7090.4270684</v>
+        <v>7715.0066888</v>
       </c>
       <c r="W7" t="n">
         <v>1000</v>
@@ -7946,10 +8573,10 @@
         <v>0</v>
       </c>
       <c r="AR7" t="n">
-        <v>23140.39415658</v>
+        <v>34711.90273052</v>
       </c>
       <c r="AS7" t="n">
-        <v>187533.28325658</v>
+        <v>199104.79183052</v>
       </c>
     </row>
     <row r="8">
@@ -8013,13 +8640,13 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>78506.36168936</v>
+        <v>88107.66381863999</v>
       </c>
       <c r="U8" t="n">
-        <v>11531.63112</v>
+        <v>12453.23248</v>
       </c>
       <c r="V8" t="n">
-        <v>8339.5863092</v>
+        <v>9588.74555</v>
       </c>
       <c r="W8" t="n">
         <v>1000</v>
@@ -8089,10 +8716,10 @@
         <v>0</v>
       </c>
       <c r="AR8" t="n">
-        <v>46283.41130446</v>
+        <v>69426.42845234</v>
       </c>
       <c r="AS8" t="n">
-        <v>211174.73769526</v>
+        <v>234317.75484314</v>
       </c>
     </row>
     <row r="9">
@@ -8291,13 +8918,13 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>264804.58353188</v>
+        <v>269968.35551092</v>
       </c>
       <c r="U10" t="n">
-        <v>39521.0747264</v>
+        <v>40015.9894016</v>
       </c>
       <c r="V10" t="n">
-        <v>30290.45703671</v>
+        <v>30956.68368722</v>
       </c>
       <c r="W10" t="n">
         <v>2300</v>
@@ -8367,10 +8994,10 @@
         <v>0</v>
       </c>
       <c r="AR10" t="n">
-        <v>24804.9466119225</v>
+        <v>37214.433090275</v>
       </c>
       <c r="AS10" t="n">
-        <v>723964.1271051225</v>
+        <v>736373.613583475</v>
       </c>
     </row>
     <row r="11">
@@ -8434,13 +9061,13 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>311911.9091022</v>
+        <v>337730.7689974</v>
       </c>
       <c r="U11" t="n">
-        <v>45726.125888</v>
+        <v>48200.699264</v>
       </c>
       <c r="V11" t="n">
-        <v>35620.27024079</v>
+        <v>38951.40349334</v>
       </c>
       <c r="W11" t="n">
         <v>2300</v>
@@ -8510,10 +9137,10 @@
         <v>0</v>
       </c>
       <c r="AR11" t="n">
-        <v>124080.8384387425</v>
+        <v>186128.270830505</v>
       </c>
       <c r="AS11" t="n">
-        <v>844702.7316139427</v>
+        <v>906750.1640057052</v>
       </c>
     </row>
     <row r="12">
@@ -8577,13 +9204,13 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>317709.0588402</v>
+        <v>343527.9187354</v>
       </c>
       <c r="U12" t="n">
-        <v>47971.859648</v>
+        <v>50446.433024</v>
       </c>
       <c r="V12" t="n">
-        <v>35620.27024079</v>
+        <v>38951.40349334</v>
       </c>
       <c r="W12" t="n">
         <v>2300</v>
@@ -8653,10 +9280,10 @@
         <v>0</v>
       </c>
       <c r="AR12" t="n">
-        <v>124080.8384387425</v>
+        <v>186128.270830505</v>
       </c>
       <c r="AS12" t="n">
-        <v>866165.4442959426</v>
+        <v>928212.8766877051</v>
       </c>
     </row>
     <row r="13">
@@ -8720,13 +9347,13 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>373984.498421</v>
+        <v>425042.5032376</v>
       </c>
       <c r="U13" t="n">
-        <v>55054.453472</v>
+        <v>59947.45688</v>
       </c>
       <c r="V13" t="n">
-        <v>42153.25043746</v>
+        <v>48749.65410619</v>
       </c>
       <c r="W13" t="n">
         <v>2300</v>
@@ -8796,10 +9423,10 @@
         <v>0</v>
       </c>
       <c r="AR13" t="n">
-        <v>245498.098853995</v>
+        <v>368247.1482809925</v>
       </c>
       <c r="AS13" t="n">
-        <v>1009045.417393195</v>
+        <v>1131794.466820193</v>
       </c>
     </row>
     <row r="14">
@@ -8863,13 +9490,13 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>323506.2085782</v>
+        <v>349325.0684734</v>
       </c>
       <c r="U14" t="n">
-        <v>50217.593408</v>
+        <v>52692.166784</v>
       </c>
       <c r="V14" t="n">
-        <v>35620.27024079</v>
+        <v>38951.40349334</v>
       </c>
       <c r="W14" t="n">
         <v>2300</v>
@@ -8939,10 +9566,10 @@
         <v>0</v>
       </c>
       <c r="AR14" t="n">
-        <v>124080.8384387425</v>
+        <v>186128.270830505</v>
       </c>
       <c r="AS14" t="n">
-        <v>887453.1569779424</v>
+        <v>949500.5893697049</v>
       </c>
     </row>
     <row r="15">
@@ -9006,13 +9633,13 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>476480.34289748</v>
+        <v>508860.60902132</v>
       </c>
       <c r="U15" t="n">
-        <v>74048.79369471999</v>
+        <v>77150.92091967999</v>
       </c>
       <c r="V15" t="n">
-        <v>57439.50735466</v>
+        <v>61646.21315182</v>
       </c>
       <c r="W15" t="n">
         <v>2300</v>
@@ -9082,10 +9709,10 @@
         <v>0</v>
       </c>
       <c r="AR15" t="n">
-        <v>155923.424791423</v>
+        <v>233896.927101157</v>
       </c>
       <c r="AS15" t="n">
-        <v>1330673.186680343</v>
+        <v>1408646.688990077</v>
       </c>
     </row>
     <row r="16">
@@ -9149,13 +9776,13 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>487273.76493876</v>
+        <v>525050.74208324</v>
       </c>
       <c r="U16" t="n">
-        <v>75082.83610304</v>
+        <v>78701.98453215999</v>
       </c>
       <c r="V16" t="n">
-        <v>58837.64178072001</v>
+        <v>63741.36437108</v>
       </c>
       <c r="W16" t="n">
         <v>2300</v>
@@ -9225,10 +9852,10 @@
         <v>0</v>
       </c>
       <c r="AR16" t="n">
-        <v>181891.012399956</v>
+        <v>272836.518599934</v>
       </c>
       <c r="AS16" t="n">
-        <v>1356815.774288876</v>
+        <v>1447761.280488854</v>
       </c>
     </row>
     <row r="17">
@@ -9292,13 +9919,13 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>1157026.07349472</v>
+        <v>1206816.24044648</v>
       </c>
       <c r="U17" t="n">
-        <v>181107.48751504</v>
+        <v>185872.50741976</v>
       </c>
       <c r="V17" t="n">
-        <v>151461.74567</v>
+        <v>158086.23362</v>
       </c>
       <c r="W17" t="n">
         <v>2300</v>
@@ -9368,10 +9995,10 @@
         <v>0</v>
       </c>
       <c r="AR17" t="n">
-        <v>241459.821191156</v>
+        <v>362219.431197984</v>
       </c>
       <c r="AS17" t="n">
-        <v>3291426.774950996</v>
+        <v>3412186.384957824</v>
       </c>
     </row>
     <row r="18">
@@ -9435,13 +10062,13 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>5580609.7870372</v>
+        <v>5697671.7870372</v>
       </c>
       <c r="U18" t="n">
-        <v>892696.9429516</v>
+        <v>905206.006589</v>
       </c>
       <c r="V18" t="n">
-        <v>733905.7461</v>
+        <v>750622.7461</v>
       </c>
       <c r="W18" t="n">
         <v>2300</v>
@@ -9511,10 +10138,10 @@
         <v>0</v>
       </c>
       <c r="AR18" t="n">
-        <v>598995.57819612</v>
+        <v>898492.86729418</v>
       </c>
       <c r="AS18" t="n">
-        <v>15975430.73347824</v>
+        <v>16274928.0225763</v>
       </c>
     </row>
     <row r="19">
@@ -9578,13 +10205,13 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>9078994.074582599</v>
+        <v>9196056.074582599</v>
       </c>
       <c r="U19" t="n">
-        <v>1463564.9408672</v>
+        <v>1478075.9408672</v>
       </c>
       <c r="V19" t="n">
-        <v>1183858.5052</v>
+        <v>1200575.5052</v>
       </c>
       <c r="W19" t="n">
         <v>2300</v>
@@ -9654,10 +10281,10 @@
         <v>0</v>
       </c>
       <c r="AR19" t="n">
-        <v>626622.3</v>
+        <v>939932.95</v>
       </c>
       <c r="AS19" t="n">
-        <v>26002307.57146628</v>
+        <v>26315618.22146628</v>
       </c>
     </row>
     <row r="20">
@@ -9721,13 +10348,13 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>234256.89714088</v>
+        <v>237673.11316947</v>
       </c>
       <c r="U20" t="n">
-        <v>38058.98318668</v>
+        <v>38453.75740162</v>
       </c>
       <c r="V20" t="n">
-        <v>26460.87945504</v>
+        <v>26883.00598256</v>
       </c>
       <c r="W20" t="n">
         <v>1000</v>
@@ -9797,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="AR20" t="n">
-        <v>17122.121289832</v>
+        <v>25689.506934748</v>
       </c>
       <c r="AS20" t="n">
-        <v>654161.4379954521</v>
+        <v>662728.8236403681</v>
       </c>
     </row>
     <row r="21">
@@ -9864,13 +10491,13 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>300890.38726192</v>
+        <v>305020.76351168</v>
       </c>
       <c r="U21" t="n">
-        <v>48784.83709008</v>
+        <v>49252.32899192</v>
       </c>
       <c r="V21" t="n">
-        <v>34890.5372898</v>
+        <v>35403.30328599999</v>
       </c>
       <c r="W21" t="n">
         <v>1250</v>
@@ -9940,10 +10567,10 @@
         <v>0</v>
       </c>
       <c r="AR21" t="n">
-        <v>20590.580661262</v>
+        <v>30895.055511868</v>
       </c>
       <c r="AS21" t="n">
-        <v>845692.602599822</v>
+        <v>855997.0774504279</v>
       </c>
     </row>
     <row r="22">
@@ -10007,13 +10634,13 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>415121.7693496</v>
+        <v>421944.8030933</v>
       </c>
       <c r="U22" t="n">
-        <v>66854.5567234</v>
+        <v>67587.4847243</v>
       </c>
       <c r="V22" t="n">
-        <v>50203.22458974</v>
+        <v>51073.81903461</v>
       </c>
       <c r="W22" t="n">
         <v>2300</v>
@@ -10083,10 +10710,10 @@
         <v>0</v>
       </c>
       <c r="AR22" t="n">
-        <v>33765.56001582499</v>
+        <v>50651.7150237375</v>
       </c>
       <c r="AS22" t="n">
-        <v>1177720.752132065</v>
+        <v>1194606.907139977</v>
       </c>
     </row>
     <row r="23">
@@ -10150,13 +10777,13 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>473762.72783928</v>
+        <v>482585.0965128699</v>
       </c>
       <c r="U23" t="n">
-        <v>79797.22774247998</v>
+        <v>80727.67869851999</v>
       </c>
       <c r="V23" t="n">
-        <v>57613.86948685</v>
+        <v>58755.92886221001</v>
       </c>
       <c r="W23" t="n">
         <v>2300</v>
@@ -10226,10 +10853,10 @@
         <v>0</v>
       </c>
       <c r="AR23" t="n">
-        <v>43584.7875649195</v>
+        <v>65394.1092435055</v>
       </c>
       <c r="AS23" t="n">
-        <v>1368797.348811779</v>
+        <v>1390606.670490365</v>
       </c>
     </row>
     <row r="24">
@@ -10293,13 +10920,13 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>550022.535136</v>
+        <v>560576.564064</v>
       </c>
       <c r="U24" t="n">
-        <v>96583.85819456</v>
+        <v>97683.82545824</v>
       </c>
       <c r="V24" t="n">
-        <v>69805.54547428001</v>
+        <v>71196.07276142</v>
       </c>
       <c r="W24" t="n">
         <v>2300</v>
@@ -10369,10 +10996,10 @@
         <v>0</v>
       </c>
       <c r="AR24" t="n">
-        <v>52271.919896894</v>
+        <v>78411.254845341</v>
       </c>
       <c r="AS24" t="n">
-        <v>1631687.043155574</v>
+        <v>1657826.378104021</v>
       </c>
     </row>
     <row r="25">
@@ -10436,13 +11063,13 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>703198.4572794</v>
+        <v>716237.4572794</v>
       </c>
       <c r="U25" t="n">
-        <v>131231.1443292</v>
+        <v>132732.103593</v>
       </c>
       <c r="V25" t="n">
-        <v>94597.2133</v>
+        <v>96525.2133</v>
       </c>
       <c r="W25" t="n">
         <v>2300</v>
@@ -10512,13 +11139,512 @@
         <v>0</v>
       </c>
       <c r="AR25" t="n">
-        <v>68968.98784044001</v>
+        <v>103450.60676066</v>
       </c>
       <c r="AS25" t="n">
-        <v>2167881.32962588</v>
+        <v>2202362.9485461</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.142857142857141" defaultRowHeight="12.8"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>9400</v>
+      </c>
+      <c r="B1" t="n">
+        <v>900</v>
+      </c>
+      <c r="C1" t="n">
+        <v>1230</v>
+      </c>
+      <c r="D1" t="n">
+        <v>48</v>
+      </c>
+      <c r="E1" t="n">
+        <v>32</v>
+      </c>
+      <c r="F1" t="n">
+        <v>41</v>
+      </c>
+      <c r="G1">
+        <f>"21,"&amp;A1&amp;";31,"&amp;B1&amp;";41,"&amp;C1&amp;";22,"&amp;D1&amp;";32,"&amp;E1&amp;";42,"&amp;F1</f>
+        <v/>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>18800</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1800</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2460</v>
+      </c>
+      <c r="D2" t="n">
+        <v>96</v>
+      </c>
+      <c r="E2" t="n">
+        <v>64</v>
+      </c>
+      <c r="F2" t="n">
+        <v>83</v>
+      </c>
+      <c r="G2">
+        <f>"21,"&amp;A2&amp;";31,"&amp;B2&amp;";41,"&amp;C2&amp;";22,"&amp;D2&amp;";32,"&amp;E2&amp;";42,"&amp;F2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>28200</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2700</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3690</v>
+      </c>
+      <c r="D3" t="n">
+        <v>144</v>
+      </c>
+      <c r="E3" t="n">
+        <v>96</v>
+      </c>
+      <c r="F3" t="n">
+        <v>125</v>
+      </c>
+      <c r="G3">
+        <f>"21,"&amp;A3&amp;";31,"&amp;B3&amp;";41,"&amp;C3&amp;";22,"&amp;D3&amp;";32,"&amp;E3&amp;";42,"&amp;F3</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>37600</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3600</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4920</v>
+      </c>
+      <c r="D4" t="n">
+        <v>192</v>
+      </c>
+      <c r="E4" t="n">
+        <v>128</v>
+      </c>
+      <c r="F4" t="n">
+        <v>167</v>
+      </c>
+      <c r="G4">
+        <f>"21,"&amp;A4&amp;";31,"&amp;B4&amp;";41,"&amp;C4&amp;";22,"&amp;D4&amp;";32,"&amp;E4&amp;";42,"&amp;F4</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>47000</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4500</v>
+      </c>
+      <c r="C5" t="n">
+        <v>6150</v>
+      </c>
+      <c r="D5" t="n">
+        <v>240</v>
+      </c>
+      <c r="E5" t="n">
+        <v>160</v>
+      </c>
+      <c r="F5" t="n">
+        <v>209</v>
+      </c>
+      <c r="G5">
+        <f>"21,"&amp;A5&amp;";31,"&amp;B5&amp;";41,"&amp;C5&amp;";22,"&amp;D5&amp;";32,"&amp;E5&amp;";42,"&amp;F5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>56400</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5400</v>
+      </c>
+      <c r="C6" t="n">
+        <v>7380</v>
+      </c>
+      <c r="D6" t="n">
+        <v>288</v>
+      </c>
+      <c r="E6" t="n">
+        <v>192</v>
+      </c>
+      <c r="F6" t="n">
+        <v>251</v>
+      </c>
+      <c r="G6">
+        <f>"21,"&amp;A6&amp;";31,"&amp;B6&amp;";41,"&amp;C6&amp;";22,"&amp;D6&amp;";32,"&amp;E6&amp;";42,"&amp;F6</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>65800</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6300</v>
+      </c>
+      <c r="C7" t="n">
+        <v>8610</v>
+      </c>
+      <c r="D7" t="n">
+        <v>336</v>
+      </c>
+      <c r="E7" t="n">
+        <v>224</v>
+      </c>
+      <c r="F7" t="n">
+        <v>292</v>
+      </c>
+      <c r="G7">
+        <f>"21,"&amp;A7&amp;";31,"&amp;B7&amp;";41,"&amp;C7&amp;";22,"&amp;D7&amp;";32,"&amp;E7&amp;";42,"&amp;F7</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>75200</v>
+      </c>
+      <c r="B8" t="n">
+        <v>7200</v>
+      </c>
+      <c r="C8" t="n">
+        <v>9840</v>
+      </c>
+      <c r="D8" t="n">
+        <v>378</v>
+      </c>
+      <c r="E8" t="n">
+        <v>252</v>
+      </c>
+      <c r="F8" t="n">
+        <v>329</v>
+      </c>
+      <c r="G8">
+        <f>"21,"&amp;A8&amp;";31,"&amp;B8&amp;";41,"&amp;C8&amp;";22,"&amp;D8&amp;";32,"&amp;E8&amp;";42,"&amp;F8</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>84600</v>
+      </c>
+      <c r="B9" t="n">
+        <v>8100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>11070</v>
+      </c>
+      <c r="D9" t="n">
+        <v>402</v>
+      </c>
+      <c r="E9" t="n">
+        <v>268</v>
+      </c>
+      <c r="F9" t="n">
+        <v>350</v>
+      </c>
+      <c r="G9">
+        <f>"21,"&amp;A9&amp;";31,"&amp;B9&amp;";41,"&amp;C9&amp;";22,"&amp;D9&amp;";32,"&amp;E9&amp;";42,"&amp;F9</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>94000</v>
+      </c>
+      <c r="B10" t="n">
+        <v>9000</v>
+      </c>
+      <c r="C10" t="n">
+        <v>12300</v>
+      </c>
+      <c r="D10" t="n">
+        <v>420</v>
+      </c>
+      <c r="E10" t="n">
+        <v>280</v>
+      </c>
+      <c r="F10" t="n">
+        <v>366</v>
+      </c>
+      <c r="G10">
+        <f>"21,"&amp;A10&amp;";31,"&amp;B10&amp;";41,"&amp;C10&amp;";22,"&amp;D10&amp;";32,"&amp;E10&amp;";42,"&amp;F10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>6004</v>
+      </c>
+      <c r="B12" t="n">
+        <v>699</v>
+      </c>
+      <c r="C12" t="n">
+        <v>759</v>
+      </c>
+      <c r="D12" t="n">
+        <v>42</v>
+      </c>
+      <c r="E12" t="n">
+        <v>28</v>
+      </c>
+      <c r="F12" t="n">
+        <v>36</v>
+      </c>
+      <c r="G12">
+        <f>"21,"&amp;A12&amp;";31,"&amp;B12&amp;";41,"&amp;C12&amp;";22,"&amp;D12&amp;";32,"&amp;E12&amp;";42,"&amp;F12</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>6289</v>
+      </c>
+      <c r="B13" t="n">
+        <v>732</v>
+      </c>
+      <c r="C13" t="n">
+        <v>802</v>
+      </c>
+      <c r="D13" t="n">
+        <v>84</v>
+      </c>
+      <c r="E13" t="n">
+        <v>56</v>
+      </c>
+      <c r="F13" t="n">
+        <v>73</v>
+      </c>
+      <c r="G13">
+        <f>"21,"&amp;A13&amp;";31,"&amp;B13&amp;";41,"&amp;C13&amp;";22,"&amp;D13&amp;";32,"&amp;E13&amp;";42,"&amp;F13</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>6588</v>
+      </c>
+      <c r="B14" t="n">
+        <v>767</v>
+      </c>
+      <c r="C14" t="n">
+        <v>848</v>
+      </c>
+      <c r="D14" t="n">
+        <v>126</v>
+      </c>
+      <c r="E14" t="n">
+        <v>84</v>
+      </c>
+      <c r="F14" t="n">
+        <v>109</v>
+      </c>
+      <c r="G14">
+        <f>"21,"&amp;A14&amp;";31,"&amp;B14&amp;";41,"&amp;C14&amp;";22,"&amp;D14&amp;";32,"&amp;E14&amp;";42,"&amp;F14</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>7057</v>
+      </c>
+      <c r="B15" t="n">
+        <v>821</v>
+      </c>
+      <c r="C15" t="n">
+        <v>922</v>
+      </c>
+      <c r="D15" t="n">
+        <v>168</v>
+      </c>
+      <c r="E15" t="n">
+        <v>112</v>
+      </c>
+      <c r="F15" t="n">
+        <v>146</v>
+      </c>
+      <c r="G15">
+        <f>"21,"&amp;A15&amp;";31,"&amp;B15&amp;";41,"&amp;C15&amp;";22,"&amp;D15&amp;";32,"&amp;E15&amp;";42,"&amp;F15</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>7393</v>
+      </c>
+      <c r="B16" t="n">
+        <v>860</v>
+      </c>
+      <c r="C16" t="n">
+        <v>973</v>
+      </c>
+      <c r="D16" t="n">
+        <v>210</v>
+      </c>
+      <c r="E16" t="n">
+        <v>140</v>
+      </c>
+      <c r="F16" t="n">
+        <v>182</v>
+      </c>
+      <c r="G16">
+        <f>"21,"&amp;A16&amp;";31,"&amp;B16&amp;";41,"&amp;C16&amp;";22,"&amp;D16&amp;";32,"&amp;E16&amp;";42,"&amp;F16</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>7745</v>
+      </c>
+      <c r="B17" t="n">
+        <v>901</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1027</v>
+      </c>
+      <c r="D17" t="n">
+        <v>252</v>
+      </c>
+      <c r="E17" t="n">
+        <v>168</v>
+      </c>
+      <c r="F17" t="n">
+        <v>219</v>
+      </c>
+      <c r="G17">
+        <f>"21,"&amp;A17&amp;";31,"&amp;B17&amp;";41,"&amp;C17&amp;";22,"&amp;D17&amp;";32,"&amp;E17&amp;";42,"&amp;F17</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>8114</v>
+      </c>
+      <c r="B18" t="n">
+        <v>943</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1084</v>
+      </c>
+      <c r="D18" t="n">
+        <v>294</v>
+      </c>
+      <c r="E18" t="n">
+        <v>196</v>
+      </c>
+      <c r="F18" t="n">
+        <v>255</v>
+      </c>
+      <c r="G18">
+        <f>"21,"&amp;A18&amp;";31,"&amp;B18&amp;";41,"&amp;C18&amp;";22,"&amp;D18&amp;";32,"&amp;E18&amp;";42,"&amp;F18</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>8823</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1026</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1195</v>
+      </c>
+      <c r="D19" t="n">
+        <v>336</v>
+      </c>
+      <c r="E19" t="n">
+        <v>224</v>
+      </c>
+      <c r="F19" t="n">
+        <v>292</v>
+      </c>
+      <c r="G19">
+        <f>"21,"&amp;A19&amp;";31,"&amp;B19&amp;";41,"&amp;C19&amp;";22,"&amp;D19&amp;";32,"&amp;E19&amp;";42,"&amp;F19</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>9553</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1111</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1310</v>
+      </c>
+      <c r="D20" t="n">
+        <v>378</v>
+      </c>
+      <c r="E20" t="n">
+        <v>252</v>
+      </c>
+      <c r="F20" t="n">
+        <v>328</v>
+      </c>
+      <c r="G20">
+        <f>"21,"&amp;A20&amp;";31,"&amp;B20&amp;";41,"&amp;C20&amp;";22,"&amp;D20&amp;";32,"&amp;E20&amp;";42,"&amp;F20</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>10298</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1198</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1428</v>
+      </c>
+      <c r="D21" t="n">
+        <v>420</v>
+      </c>
+      <c r="E21" t="n">
+        <v>280</v>
+      </c>
+      <c r="F21" t="n">
+        <v>365</v>
+      </c>
+      <c r="G21">
+        <f>"21,"&amp;A21&amp;";31,"&amp;B21&amp;";41,"&amp;C21&amp;";22,"&amp;D21&amp;";32,"&amp;E21&amp;";42,"&amp;F21</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+</worksheet>
 </file>
--- a/opm_hero_property/heroes/84.xlsx
+++ b/opm_hero_property/heroes/84.xlsx
@@ -7510,7 +7510,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS25"/>
+  <dimension ref="A1:AW25"/>
   <sheetViews>
     <sheetView topLeftCell="AD1" workbookViewId="0">
       <selection activeCell="AL17" sqref="AL17"/>
@@ -7706,40 +7706,60 @@
       </c>
       <c r="AL1" t="inlineStr">
         <is>
+          <t>job_contact</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>attr_addition</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>pvp_addition</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
           <t>基础战力</t>
         </is>
       </c>
-      <c r="AM1" t="inlineStr">
+      <c r="AP1" t="inlineStr">
         <is>
           <t>装备战力</t>
         </is>
       </c>
-      <c r="AN1" t="inlineStr">
+      <c r="AQ1" t="inlineStr">
         <is>
           <t>天赋战力</t>
         </is>
       </c>
-      <c r="AO1" t="inlineStr">
+      <c r="AR1" t="inlineStr">
         <is>
           <t>研究所战力</t>
         </is>
       </c>
-      <c r="AP1" t="inlineStr">
+      <c r="AS1" t="inlineStr">
         <is>
           <t>职阶战力</t>
         </is>
       </c>
-      <c r="AQ1" t="inlineStr">
+      <c r="AT1" t="inlineStr">
         <is>
           <t>机械核心战力</t>
         </is>
       </c>
-      <c r="AR1" t="inlineStr">
+      <c r="AU1" t="inlineStr">
         <is>
           <t>限制器战力</t>
         </is>
       </c>
-      <c r="AS1" t="inlineStr">
+      <c r="AV1" t="inlineStr">
+        <is>
+          <t>收集战力</t>
+        </is>
+      </c>
+      <c r="AW1" t="inlineStr">
         <is>
           <t>总战力</t>
         </is>
@@ -7779,7 +7799,7 @@
         <v>10</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L2" t="n">
         <v>84</v>
@@ -7806,13 +7826,13 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>5697671.7870372</v>
+        <v>6658529.8830692</v>
       </c>
       <c r="U2" t="n">
-        <v>905206.006589</v>
+        <v>1042504.084517</v>
       </c>
       <c r="V2" t="n">
-        <v>750622.7461</v>
+        <v>895542.3017879999</v>
       </c>
       <c r="W2" t="n">
         <v>2300</v>
@@ -7851,7 +7871,7 @@
         <v>10</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
@@ -7864,28 +7884,36 @@
         </is>
       </c>
       <c r="AL2" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="n">
         <v>11423759.111765</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AP2" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AQ2" t="n">
         <v>1351778.99351712</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AR2" t="n">
         <v>481003.7</v>
       </c>
-      <c r="AP2" t="n">
-        <v>2005624.4</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR2" t="n">
+      <c r="AS2" t="n">
+        <v>2919459.1289412</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>1827667.55</v>
+      </c>
+      <c r="AU2" t="n">
         <v>898492.86729418</v>
       </c>
-      <c r="AS2" t="n">
-        <v>16274928.0225763</v>
+      <c r="AV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>19016430.3015175</v>
       </c>
     </row>
     <row r="3">
@@ -7922,7 +7950,7 @@
         <v>10</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L3" t="n">
         <v>84</v>
@@ -7949,13 +7977,13 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>716237.4572794</v>
+        <v>824446.0241433999</v>
       </c>
       <c r="U3" t="n">
-        <v>132732.103593</v>
+        <v>148194.156529</v>
       </c>
       <c r="V3" t="n">
-        <v>96525.2133</v>
+        <v>113185.766364</v>
       </c>
       <c r="W3" t="n">
         <v>2300</v>
@@ -7994,7 +8022,7 @@
         <v>10</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
@@ -8007,28 +8035,36 @@
         </is>
       </c>
       <c r="AL3" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="n">
         <v>1295393.278005</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AP3" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AQ3" t="n">
         <v>152686.06378044</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AR3" t="n">
         <v>68760.45</v>
       </c>
-      <c r="AP3" t="n">
-        <v>467803.6</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR3" t="n">
+      <c r="AS3" t="n">
+        <v>571369.0622404</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>207129.45</v>
+      </c>
+      <c r="AU3" t="n">
         <v>103450.60676066</v>
       </c>
-      <c r="AS3" t="n">
-        <v>2202362.9485461</v>
+      <c r="AV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>2513057.8607865</v>
       </c>
     </row>
     <row r="4">
@@ -8065,7 +8101,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
         <v>84</v>
@@ -8092,13 +8128,13 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>7702.096</v>
+        <v>8208.096</v>
       </c>
       <c r="U4" t="n">
-        <v>1498.0486</v>
+        <v>1570.0486</v>
       </c>
       <c r="V4" t="n">
-        <v>600.8469</v>
+        <v>676.8469</v>
       </c>
       <c r="W4" t="n">
         <v>562</v>
@@ -8137,25 +8173,21 @@
         <v>0</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
       <c r="AL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="n">
         <v>18756.851015</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AP4" t="n">
         <v>4549.950000000001</v>
       </c>
-      <c r="AN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ4" t="n">
         <v>0</v>
       </c>
@@ -8163,7 +8195,19 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>23306.801015</v>
+        <v>0</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>1439.8</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>24746.601015</v>
       </c>
     </row>
     <row r="5">
@@ -8200,7 +8244,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L5" t="n">
         <v>84</v>
@@ -8227,13 +8271,13 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>20731.2324</v>
+        <v>35605.2324</v>
       </c>
       <c r="U5" t="n">
-        <v>3713.906</v>
+        <v>5838.906</v>
       </c>
       <c r="V5" t="n">
-        <v>1855.408</v>
+        <v>4098.407999999999</v>
       </c>
       <c r="W5" t="n">
         <v>673</v>
@@ -8272,25 +8316,21 @@
         <v>0</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
       <c r="AL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="n">
         <v>47919.8798</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AP5" t="n">
         <v>11988.35</v>
       </c>
-      <c r="AN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ5" t="n">
         <v>0</v>
       </c>
@@ -8298,7 +8338,19 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>59908.22979999999</v>
+        <v>0</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>42433.75</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>102341.9798</v>
       </c>
     </row>
     <row r="6">
@@ -8335,7 +8387,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L6" t="n">
         <v>84</v>
@@ -8362,13 +8414,13 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>59177.9436</v>
+        <v>122946.9436</v>
       </c>
       <c r="U6" t="n">
-        <v>9634.424999999999</v>
+        <v>18746.425</v>
       </c>
       <c r="V6" t="n">
-        <v>5841.724</v>
+        <v>15458.724</v>
       </c>
       <c r="W6" t="n">
         <v>1000</v>
@@ -8407,33 +8459,41 @@
         <v>0</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="inlineStr"/>
+      <c r="AO6" t="n">
         <v>115570.7891</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AP6" t="n">
         <v>32846</v>
       </c>
-      <c r="AN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO6" t="n">
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AS6" t="n">
         <v>9640.6</v>
       </c>
-      <c r="AQ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>164217.8891</v>
+      <c r="AT6" t="n">
+        <v>181939.55</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>346157.4391</v>
       </c>
     </row>
     <row r="7">
@@ -8470,7 +8530,7 @@
         <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L7" t="n">
         <v>84</v>
@@ -8497,13 +8557,13 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>73579.89679391999</v>
+        <v>137348.89679392</v>
       </c>
       <c r="U7" t="n">
-        <v>11016.82704</v>
+        <v>20128.82704</v>
       </c>
       <c r="V7" t="n">
-        <v>7715.0066888</v>
+        <v>17332.0066888</v>
       </c>
       <c r="W7" t="n">
         <v>1000</v>
@@ -8542,7 +8602,7 @@
         <v>1</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
@@ -8555,28 +8615,36 @@
         </is>
       </c>
       <c r="AL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM7" t="inlineStr"/>
+      <c r="AN7" t="inlineStr"/>
+      <c r="AO7" t="n">
         <v>115570.7891</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="AP7" t="n">
         <v>32846</v>
       </c>
-      <c r="AN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO7" t="n">
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP7" t="n">
+      <c r="AS7" t="n">
         <v>9815.6</v>
       </c>
-      <c r="AQ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR7" t="n">
+      <c r="AT7" t="n">
+        <v>181939.55</v>
+      </c>
+      <c r="AU7" t="n">
         <v>34711.90273052</v>
       </c>
-      <c r="AS7" t="n">
-        <v>199104.79183052</v>
+      <c r="AV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>381044.34183052</v>
       </c>
     </row>
     <row r="8">
@@ -8613,7 +8681,7 @@
         <v>2</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L8" t="n">
         <v>84</v>
@@ -8640,13 +8708,13 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>88107.66381863999</v>
+        <v>151876.66381864</v>
       </c>
       <c r="U8" t="n">
-        <v>12453.23248</v>
+        <v>21565.23248</v>
       </c>
       <c r="V8" t="n">
-        <v>9588.74555</v>
+        <v>19205.74555</v>
       </c>
       <c r="W8" t="n">
         <v>1000</v>
@@ -8685,7 +8753,7 @@
         <v>2</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
@@ -8698,28 +8766,36 @@
         </is>
       </c>
       <c r="AL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr"/>
+      <c r="AO8" t="n">
         <v>115570.7891</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AP8" t="n">
         <v>32846</v>
       </c>
-      <c r="AN8" t="n">
+      <c r="AQ8" t="n">
         <v>498.4372908</v>
       </c>
-      <c r="AO8" t="n">
+      <c r="AR8" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP8" t="n">
+      <c r="AS8" t="n">
         <v>9815.6</v>
       </c>
-      <c r="AQ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR8" t="n">
+      <c r="AT8" t="n">
+        <v>181939.55</v>
+      </c>
+      <c r="AU8" t="n">
         <v>69426.42845234</v>
       </c>
-      <c r="AS8" t="n">
-        <v>234317.75484314</v>
+      <c r="AV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>416257.30484314</v>
       </c>
     </row>
     <row r="9">
@@ -8756,7 +8832,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L9" t="n">
         <v>84</v>
@@ -8783,31 +8859,31 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>253897.3246</v>
+        <v>442039.707846</v>
       </c>
       <c r="U9" t="n">
-        <v>38306.672</v>
+        <v>64881.38872</v>
       </c>
       <c r="V9" t="n">
-        <v>28960.4431</v>
+        <v>55795.379531</v>
       </c>
       <c r="W9" t="n">
-        <v>2300</v>
+        <v>2310</v>
       </c>
       <c r="X9" t="n">
-        <v>930</v>
+        <v>940</v>
       </c>
       <c r="Y9" t="n">
         <v>15000</v>
       </c>
       <c r="Z9" t="n">
-        <v>2160</v>
+        <v>2170</v>
       </c>
       <c r="AA9" t="n">
-        <v>3810</v>
+        <v>3820</v>
       </c>
       <c r="AB9" t="n">
-        <v>1080</v>
+        <v>1120</v>
       </c>
       <c r="AC9" t="n">
         <v>0</v>
@@ -8828,33 +8904,41 @@
         <v>0</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ9" t="inlineStr"/>
       <c r="AK9" t="inlineStr"/>
       <c r="AL9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr"/>
+      <c r="AO9" t="n">
         <v>528021.309225</v>
       </c>
-      <c r="AM9" t="n">
+      <c r="AP9" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO9" t="n">
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP9" t="n">
-        <v>39618.60000000001</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>0</v>
-      </c>
       <c r="AS9" t="n">
-        <v>697029.9092250001</v>
+        <v>44890.56309225001</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>426309.25</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>94347.60000000001</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>1222958.72231725</v>
       </c>
     </row>
     <row r="10">
@@ -8891,7 +8975,7 @@
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L10" t="n">
         <v>84</v>
@@ -8918,31 +9002,31 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>269968.35551092</v>
+        <v>515953.6920545445</v>
       </c>
       <c r="U10" t="n">
-        <v>40015.9894016</v>
+        <v>75709.5395419776</v>
       </c>
       <c r="V10" t="n">
-        <v>30956.68368722</v>
+        <v>64329.06928034796</v>
       </c>
       <c r="W10" t="n">
-        <v>2300</v>
+        <v>2310</v>
       </c>
       <c r="X10" t="n">
-        <v>930</v>
+        <v>940</v>
       </c>
       <c r="Y10" t="n">
         <v>15000</v>
       </c>
       <c r="Z10" t="n">
-        <v>2160</v>
+        <v>2170</v>
       </c>
       <c r="AA10" t="n">
-        <v>3810</v>
+        <v>3820</v>
       </c>
       <c r="AB10" t="n">
-        <v>1080</v>
+        <v>1120</v>
       </c>
       <c r="AC10" t="n">
         <v>0</v>
@@ -8963,7 +9047,7 @@
         <v>1</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
@@ -8976,28 +9060,40 @@
         </is>
       </c>
       <c r="AL10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO10" t="n">
         <v>528021.309225</v>
       </c>
-      <c r="AM10" t="n">
+      <c r="AP10" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN10" t="n">
+      <c r="AQ10" t="n">
         <v>2129.2712682</v>
       </c>
-      <c r="AO10" t="n">
+      <c r="AR10" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP10" t="n">
-        <v>39618.60000000001</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR10" t="n">
+      <c r="AS10" t="n">
+        <v>44890.56309225001</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>426309.25</v>
+      </c>
+      <c r="AU10" t="n">
         <v>37214.433090275</v>
       </c>
-      <c r="AS10" t="n">
-        <v>736373.613583475</v>
+      <c r="AV10" t="n">
+        <v>252700.8365804658</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>1420655.663256191</v>
       </c>
     </row>
     <row r="11">
@@ -9034,7 +9130,7 @@
         <v>5</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L11" t="n">
         <v>84</v>
@@ -9061,31 +9157,31 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>337730.7689974</v>
+        <v>649110.5489837812</v>
       </c>
       <c r="U11" t="n">
-        <v>48200.699264</v>
+        <v>92899.58695942399</v>
       </c>
       <c r="V11" t="n">
-        <v>38951.40349334</v>
+        <v>79593.69404297811</v>
       </c>
       <c r="W11" t="n">
-        <v>2300</v>
+        <v>2310</v>
       </c>
       <c r="X11" t="n">
-        <v>930</v>
+        <v>940</v>
       </c>
       <c r="Y11" t="n">
         <v>15000</v>
       </c>
       <c r="Z11" t="n">
-        <v>2360</v>
+        <v>2370</v>
       </c>
       <c r="AA11" t="n">
-        <v>3810</v>
+        <v>3820</v>
       </c>
       <c r="AB11" t="n">
-        <v>1080</v>
+        <v>1120</v>
       </c>
       <c r="AC11" t="n">
         <v>0</v>
@@ -9106,7 +9202,7 @@
         <v>5</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
@@ -9119,28 +9215,40 @@
         </is>
       </c>
       <c r="AL11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO11" t="n">
         <v>528021.309225</v>
       </c>
-      <c r="AM11" t="n">
+      <c r="AP11" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN11" t="n">
+      <c r="AQ11" t="n">
         <v>23591.9839502</v>
       </c>
-      <c r="AO11" t="n">
+      <c r="AR11" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP11" t="n">
-        <v>39618.60000000001</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR11" t="n">
+      <c r="AS11" t="n">
+        <v>44890.56309225001</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>426309.25</v>
+      </c>
+      <c r="AU11" t="n">
         <v>186128.270830505</v>
       </c>
-      <c r="AS11" t="n">
-        <v>906750.1640057052</v>
+      <c r="AV11" t="n">
+        <v>422034.062652976</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>1760365.439750931</v>
       </c>
     </row>
     <row r="12">
@@ -9177,7 +9285,7 @@
         <v>5</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L12" t="n">
         <v>84</v>
@@ -9204,31 +9312,31 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>343527.9187354</v>
+        <v>737576.8343230094</v>
       </c>
       <c r="U12" t="n">
-        <v>50446.433024</v>
+        <v>104629.169888624</v>
       </c>
       <c r="V12" t="n">
-        <v>38951.40349334</v>
+        <v>90589.75020116227</v>
       </c>
       <c r="W12" t="n">
-        <v>2300</v>
+        <v>2320</v>
       </c>
       <c r="X12" t="n">
-        <v>930</v>
+        <v>950</v>
       </c>
       <c r="Y12" t="n">
         <v>15000</v>
       </c>
       <c r="Z12" t="n">
-        <v>2560</v>
+        <v>2580</v>
       </c>
       <c r="AA12" t="n">
-        <v>3810</v>
+        <v>3830</v>
       </c>
       <c r="AB12" t="n">
-        <v>1080</v>
+        <v>1160</v>
       </c>
       <c r="AC12" t="n">
         <v>0</v>
@@ -9249,7 +9357,7 @@
         <v>5</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
@@ -9262,28 +9370,40 @@
         </is>
       </c>
       <c r="AL12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM12" t="inlineStr"/>
+      <c r="AN12" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO12" t="n">
         <v>528021.309225</v>
       </c>
-      <c r="AM12" t="n">
+      <c r="AP12" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN12" t="n">
+      <c r="AQ12" t="n">
         <v>45054.6966322</v>
       </c>
-      <c r="AO12" t="n">
+      <c r="AR12" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP12" t="n">
-        <v>39618.60000000001</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR12" t="n">
+      <c r="AS12" t="n">
+        <v>44890.56309225001</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>426309.25</v>
+      </c>
+      <c r="AU12" t="n">
         <v>186128.270830505</v>
       </c>
-      <c r="AS12" t="n">
-        <v>928212.8766877051</v>
+      <c r="AV12" t="n">
+        <v>633489.0804312431</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>1993283.170211198</v>
       </c>
     </row>
     <row r="13">
@@ -9320,7 +9440,7 @@
         <v>10</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L13" t="n">
         <v>84</v>
@@ -9347,31 +9467,31 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>425042.5032376</v>
+        <v>916875.2410997555</v>
       </c>
       <c r="U13" t="n">
-        <v>59947.45688</v>
+        <v>127177.9792456</v>
       </c>
       <c r="V13" t="n">
-        <v>48749.65410619</v>
+        <v>111652.999339752</v>
       </c>
       <c r="W13" t="n">
-        <v>2300</v>
+        <v>2350</v>
       </c>
       <c r="X13" t="n">
-        <v>930</v>
+        <v>980</v>
       </c>
       <c r="Y13" t="n">
         <v>15000</v>
       </c>
       <c r="Z13" t="n">
-        <v>2760</v>
+        <v>2810</v>
       </c>
       <c r="AA13" t="n">
-        <v>3810</v>
+        <v>3860</v>
       </c>
       <c r="AB13" t="n">
-        <v>1080</v>
+        <v>1280</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
@@ -9392,7 +9512,7 @@
         <v>10</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
@@ -9405,28 +9525,40 @@
         </is>
       </c>
       <c r="AL13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM13" t="inlineStr"/>
+      <c r="AN13" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO13" t="n">
         <v>528021.309225</v>
       </c>
-      <c r="AM13" t="n">
+      <c r="AP13" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN13" t="n">
+      <c r="AQ13" t="n">
         <v>66517.40931420001</v>
       </c>
-      <c r="AO13" t="n">
+      <c r="AR13" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP13" t="n">
-        <v>39618.60000000001</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR13" t="n">
+      <c r="AS13" t="n">
+        <v>44890.56309225001</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>426309.25</v>
+      </c>
+      <c r="AU13" t="n">
         <v>368247.1482809925</v>
       </c>
-      <c r="AS13" t="n">
-        <v>1131794.466820193</v>
+      <c r="AV13" t="n">
+        <v>886436.364185527</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>2449812.044097969</v>
       </c>
     </row>
     <row r="14">
@@ -9463,7 +9595,7 @@
         <v>5</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L14" t="n">
         <v>84</v>
@@ -9490,31 +9622,31 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>349325.0684734</v>
+        <v>972882.9774019313</v>
       </c>
       <c r="U14" t="n">
-        <v>52692.166784</v>
+        <v>134605.704708096</v>
       </c>
       <c r="V14" t="n">
-        <v>38951.40349334</v>
+        <v>111749.4680825242</v>
       </c>
       <c r="W14" t="n">
-        <v>2300</v>
+        <v>2350</v>
       </c>
       <c r="X14" t="n">
-        <v>860</v>
+        <v>910</v>
       </c>
       <c r="Y14" t="n">
         <v>15000</v>
       </c>
       <c r="Z14" t="n">
-        <v>2760</v>
+        <v>2810</v>
       </c>
       <c r="AA14" t="n">
-        <v>3740</v>
+        <v>3790</v>
       </c>
       <c r="AB14" t="n">
-        <v>1080</v>
+        <v>1280</v>
       </c>
       <c r="AC14" t="n">
         <v>0</v>
@@ -9535,7 +9667,7 @@
         <v>5</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
@@ -9548,28 +9680,40 @@
         </is>
       </c>
       <c r="AL14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM14" t="inlineStr"/>
+      <c r="AN14" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO14" t="n">
         <v>528021.309225</v>
       </c>
-      <c r="AM14" t="n">
+      <c r="AP14" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN14" t="n">
+      <c r="AQ14" t="n">
         <v>66517.40931420001</v>
       </c>
-      <c r="AO14" t="n">
+      <c r="AR14" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP14" t="n">
-        <v>39443.60000000001</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR14" t="n">
+      <c r="AS14" t="n">
+        <v>44715.56309225001</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>426309.25</v>
+      </c>
+      <c r="AU14" t="n">
         <v>186128.270830505</v>
       </c>
-      <c r="AS14" t="n">
-        <v>949500.5893697049</v>
+      <c r="AV14" t="n">
+        <v>1176368.978900352</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>2557450.781362307</v>
       </c>
     </row>
     <row r="15">
@@ -9606,7 +9750,7 @@
         <v>6</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L15" t="n">
         <v>84</v>
@@ -9633,31 +9777,31 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>508860.60902132</v>
+        <v>1537319.977163633</v>
       </c>
       <c r="U15" t="n">
-        <v>77150.92091967999</v>
+        <v>223275.4939896976</v>
       </c>
       <c r="V15" t="n">
-        <v>61646.21315182</v>
+        <v>187458.7874704243</v>
       </c>
       <c r="W15" t="n">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="X15" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="Y15" t="n">
         <v>15000</v>
       </c>
       <c r="Z15" t="n">
-        <v>2760</v>
+        <v>2860</v>
       </c>
       <c r="AA15" t="n">
-        <v>3880</v>
+        <v>3980</v>
       </c>
       <c r="AB15" t="n">
-        <v>1080</v>
+        <v>1480</v>
       </c>
       <c r="AC15" t="n">
         <v>0</v>
@@ -9678,7 +9822,7 @@
         <v>6</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
@@ -9691,28 +9835,40 @@
         </is>
       </c>
       <c r="AL15" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM15" t="inlineStr"/>
+      <c r="AN15" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO15" t="n">
         <v>815948.48199</v>
       </c>
-      <c r="AM15" t="n">
+      <c r="AP15" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN15" t="n">
+      <c r="AQ15" t="n">
         <v>99186.72989892002</v>
       </c>
-      <c r="AO15" t="n">
+      <c r="AR15" t="n">
         <v>33220.2</v>
       </c>
-      <c r="AP15" t="n">
-        <v>112125.4</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR15" t="n">
+      <c r="AS15" t="n">
+        <v>128427.8696398</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>780011.6000000001</v>
+      </c>
+      <c r="AU15" t="n">
         <v>233896.927101157</v>
       </c>
-      <c r="AS15" t="n">
-        <v>1408646.688990077</v>
+      <c r="AV15" t="n">
+        <v>1965027.155017609</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>4169987.913647486</v>
       </c>
     </row>
     <row r="16">
@@ -9749,7 +9905,7 @@
         <v>7</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L16" t="n">
         <v>84</v>
@@ -9776,31 +9932,31 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>525050.74208324</v>
+        <v>1583131.576623299</v>
       </c>
       <c r="U16" t="n">
-        <v>78701.98453215999</v>
+        <v>229080.5680483978</v>
       </c>
       <c r="V16" t="n">
-        <v>63741.36437108</v>
+        <v>193061.5587089617</v>
       </c>
       <c r="W16" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="X16" t="n">
-        <v>1070</v>
+        <v>1270</v>
       </c>
       <c r="Y16" t="n">
         <v>15000</v>
       </c>
       <c r="Z16" t="n">
-        <v>2760</v>
+        <v>2960</v>
       </c>
       <c r="AA16" t="n">
-        <v>3950</v>
+        <v>4150</v>
       </c>
       <c r="AB16" t="n">
-        <v>1080</v>
+        <v>1880</v>
       </c>
       <c r="AC16" t="n">
         <v>0</v>
@@ -9821,7 +9977,7 @@
         <v>7</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
@@ -9834,28 +9990,40 @@
         </is>
       </c>
       <c r="AL16" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM16" t="inlineStr"/>
+      <c r="AN16" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO16" t="n">
         <v>815948.48199</v>
       </c>
-      <c r="AM16" t="n">
+      <c r="AP16" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN16" t="n">
+      <c r="AQ16" t="n">
         <v>99186.72989892002</v>
       </c>
-      <c r="AO16" t="n">
+      <c r="AR16" t="n">
         <v>33220.2</v>
       </c>
-      <c r="AP16" t="n">
-        <v>112300.4</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR16" t="n">
+      <c r="AS16" t="n">
+        <v>128602.8696398</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>780011.6000000001</v>
+      </c>
+      <c r="AU16" t="n">
         <v>272836.518599934</v>
       </c>
-      <c r="AS16" t="n">
-        <v>1447761.280488854</v>
+      <c r="AV16" t="n">
+        <v>2045370.10860512</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>4289445.458733774</v>
       </c>
     </row>
     <row r="17">
@@ -9892,7 +10060,7 @@
         <v>8</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L17" t="n">
         <v>84</v>
@@ -9919,31 +10087,31 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>1206816.24044648</v>
+        <v>2864893.774144419</v>
       </c>
       <c r="U17" t="n">
-        <v>185872.50741976</v>
+        <v>413751.2461059187</v>
       </c>
       <c r="V17" t="n">
-        <v>158086.23362</v>
+        <v>363702.0770646401</v>
       </c>
       <c r="W17" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="X17" t="n">
-        <v>1350</v>
+        <v>1550</v>
       </c>
       <c r="Y17" t="n">
         <v>15000</v>
       </c>
       <c r="Z17" t="n">
-        <v>2760</v>
+        <v>2960</v>
       </c>
       <c r="AA17" t="n">
-        <v>4230</v>
+        <v>4430</v>
       </c>
       <c r="AB17" t="n">
-        <v>1080</v>
+        <v>1880</v>
       </c>
       <c r="AC17" t="n">
         <v>0</v>
@@ -9964,7 +10132,7 @@
         <v>8</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
@@ -9977,28 +10145,40 @@
         </is>
       </c>
       <c r="AL17" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM17" t="inlineStr"/>
+      <c r="AN17" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO17" t="n">
         <v>1877782.69408</v>
       </c>
-      <c r="AM17" t="n">
+      <c r="AP17" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN17" t="n">
+      <c r="AQ17" t="n">
         <v>218714.15967984</v>
       </c>
-      <c r="AO17" t="n">
+      <c r="AR17" t="n">
         <v>155697.55</v>
       </c>
-      <c r="AP17" t="n">
-        <v>683503.6000000001</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR17" t="n">
+      <c r="AS17" t="n">
+        <v>758581.9077632</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>1246277.5</v>
+      </c>
+      <c r="AU17" t="n">
         <v>362219.431197984</v>
       </c>
-      <c r="AS17" t="n">
-        <v>3412186.384957824</v>
+      <c r="AV17" t="n">
+        <v>3093776.122675914</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>7827318.315396938</v>
       </c>
     </row>
     <row r="18">
@@ -10035,7 +10215,7 @@
         <v>10</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L18" t="n">
         <v>84</v>
@@ -10062,31 +10242,31 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>5697671.7870372</v>
+        <v>9913068.862957103</v>
       </c>
       <c r="U18" t="n">
-        <v>905206.006589</v>
+        <v>1434063.166490006</v>
       </c>
       <c r="V18" t="n">
-        <v>750622.7461</v>
+        <v>1224378.037398984</v>
       </c>
       <c r="W18" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="X18" t="n">
-        <v>1910</v>
+        <v>2110</v>
       </c>
       <c r="Y18" t="n">
         <v>15000</v>
       </c>
       <c r="Z18" t="n">
-        <v>2760</v>
+        <v>2960</v>
       </c>
       <c r="AA18" t="n">
-        <v>4790</v>
+        <v>4990</v>
       </c>
       <c r="AB18" t="n">
-        <v>1080</v>
+        <v>1880</v>
       </c>
       <c r="AC18" t="n">
         <v>0</v>
@@ -10107,7 +10287,7 @@
         <v>10</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
@@ -10120,28 +10300,40 @@
         </is>
       </c>
       <c r="AL18" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM18" t="inlineStr"/>
+      <c r="AN18" t="inlineStr">
+        <is>
+          <t>1,1,3000;2,1,3000;3,1,3000;4,1,3000;1,2,3000;2,2,3000;3,2,3000;4,2,3000;5,1,3000;5,2,3000</t>
+        </is>
+      </c>
+      <c r="AO18" t="n">
         <v>11423759.111765</v>
       </c>
-      <c r="AM18" t="n">
+      <c r="AP18" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN18" t="n">
+      <c r="AQ18" t="n">
         <v>1351778.99351712</v>
       </c>
-      <c r="AO18" t="n">
+      <c r="AR18" t="n">
         <v>481003.7</v>
       </c>
-      <c r="AP18" t="n">
-        <v>2005624.4</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR18" t="n">
+      <c r="AS18" t="n">
+        <v>2919459.1289412</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>1827667.55</v>
+      </c>
+      <c r="AU18" t="n">
         <v>898492.86729418</v>
       </c>
-      <c r="AS18" t="n">
-        <v>16274928.0225763</v>
+      <c r="AV18" t="n">
+        <v>7849502.1252648</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>26865932.4267823</v>
       </c>
     </row>
     <row r="19">
@@ -10178,7 +10370,7 @@
         <v>10</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L19" t="n">
         <v>84</v>
@@ -10205,31 +10397,31 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>9196056.074582599</v>
+        <v>16857974.13094611</v>
       </c>
       <c r="U19" t="n">
-        <v>1478075.9408672</v>
+        <v>2564471.395879405</v>
       </c>
       <c r="V19" t="n">
-        <v>1200575.5052</v>
+        <v>2158791.35700032</v>
       </c>
       <c r="W19" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="X19" t="n">
-        <v>2820</v>
+        <v>3020</v>
       </c>
       <c r="Y19" t="n">
         <v>15000</v>
       </c>
       <c r="Z19" t="n">
-        <v>2760</v>
+        <v>2960</v>
       </c>
       <c r="AA19" t="n">
-        <v>5700</v>
+        <v>5900</v>
       </c>
       <c r="AB19" t="n">
-        <v>1080</v>
+        <v>1880</v>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
@@ -10250,7 +10442,7 @@
         <v>10</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
@@ -10263,28 +10455,40 @@
         </is>
       </c>
       <c r="AL19" t="n">
+        <v>150</v>
+      </c>
+      <c r="AM19" t="inlineStr"/>
+      <c r="AN19" t="inlineStr">
+        <is>
+          <t>1,1,5000;2,1,5000;3,1,5000;4,1,5000;1,2,5000;2,2,5000;3,2,5000;4,2,5000;5,1,5000;5,2,5000</t>
+        </is>
+      </c>
+      <c r="AO19" t="n">
         <v>18533165.85501</v>
       </c>
-      <c r="AM19" t="n">
+      <c r="AP19" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN19" t="n">
+      <c r="AQ19" t="n">
         <v>2197544.06645628</v>
       </c>
-      <c r="AO19" t="n">
+      <c r="AR19" t="n">
         <v>1061573.2</v>
       </c>
-      <c r="AP19" t="n">
-        <v>3469133.2</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR19" t="n">
+      <c r="AS19" t="n">
+        <v>6248984.3282515</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>1827667.55</v>
+      </c>
+      <c r="AU19" t="n">
         <v>939932.95</v>
       </c>
-      <c r="AS19" t="n">
-        <v>26315618.22146628</v>
+      <c r="AV19" t="n">
+        <v>16062669.16554807</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>46985806.06526585</v>
       </c>
     </row>
     <row r="20">
@@ -10321,7 +10525,7 @@
         <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L20" t="n">
         <v>84</v>
@@ -10348,13 +10552,13 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>237673.11316947</v>
+        <v>244854.11316947</v>
       </c>
       <c r="U20" t="n">
-        <v>38453.75740162</v>
+        <v>39479.75740162</v>
       </c>
       <c r="V20" t="n">
-        <v>26883.00598256</v>
+        <v>27988.00598256</v>
       </c>
       <c r="W20" t="n">
         <v>1000</v>
@@ -10393,7 +10597,7 @@
         <v>1</v>
       </c>
       <c r="AI20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
@@ -10406,28 +10610,36 @@
         </is>
       </c>
       <c r="AL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM20" t="inlineStr"/>
+      <c r="AN20" t="inlineStr"/>
+      <c r="AO20" t="n">
         <v>553314.4961900001</v>
       </c>
-      <c r="AM20" t="n">
+      <c r="AP20" t="n">
         <v>32846</v>
       </c>
-      <c r="AN20" t="n">
+      <c r="AQ20" t="n">
         <v>2357.12051562</v>
       </c>
-      <c r="AO20" t="n">
+      <c r="AR20" t="n">
         <v>14696.9</v>
       </c>
-      <c r="AP20" t="n">
+      <c r="AS20" t="n">
         <v>33824.8</v>
       </c>
-      <c r="AQ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR20" t="n">
+      <c r="AT20" t="n">
+        <v>20614.15</v>
+      </c>
+      <c r="AU20" t="n">
         <v>25689.506934748</v>
       </c>
-      <c r="AS20" t="n">
-        <v>662728.8236403681</v>
+      <c r="AV20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>683342.973640368</v>
       </c>
     </row>
     <row r="21">
@@ -10464,7 +10676,7 @@
         <v>2</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L21" t="n">
         <v>84</v>
@@ -10491,13 +10703,13 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>305020.76351168</v>
+        <v>319825.89743968</v>
       </c>
       <c r="U21" t="n">
-        <v>49252.32899192</v>
+        <v>51394.80006992001</v>
       </c>
       <c r="V21" t="n">
-        <v>35403.30328599999</v>
+        <v>37623.373546</v>
       </c>
       <c r="W21" t="n">
         <v>1250</v>
@@ -10536,7 +10748,7 @@
         <v>2</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
@@ -10549,28 +10761,36 @@
         </is>
       </c>
       <c r="AL21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM21" t="inlineStr"/>
+      <c r="AN21" t="inlineStr"/>
+      <c r="AO21" t="n">
         <v>659233.83612</v>
       </c>
-      <c r="AM21" t="n">
+      <c r="AP21" t="n">
         <v>49269</v>
       </c>
-      <c r="AN21" t="n">
+      <c r="AQ21" t="n">
         <v>29921.48581856</v>
       </c>
-      <c r="AO21" t="n">
+      <c r="AR21" t="n">
         <v>19028.1</v>
       </c>
-      <c r="AP21" t="n">
-        <v>67649.60000000001</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR21" t="n">
+      <c r="AS21" t="n">
+        <v>74233.68836119999</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>35769.5</v>
+      </c>
+      <c r="AU21" t="n">
         <v>30895.055511868</v>
       </c>
-      <c r="AS21" t="n">
-        <v>855997.0774504279</v>
+      <c r="AV21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>898350.6658116281</v>
       </c>
     </row>
     <row r="22">
@@ -10607,7 +10827,7 @@
         <v>5</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L22" t="n">
         <v>84</v>
@@ -10634,31 +10854,31 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>421944.8030933</v>
+        <v>552853.611180895</v>
       </c>
       <c r="U22" t="n">
-        <v>67587.4847243</v>
+        <v>85779.7703712153</v>
       </c>
       <c r="V22" t="n">
-        <v>51073.81903461</v>
+        <v>66676.13690850524</v>
       </c>
       <c r="W22" t="n">
-        <v>2300</v>
+        <v>2350</v>
       </c>
       <c r="X22" t="n">
-        <v>930</v>
+        <v>980</v>
       </c>
       <c r="Y22" t="n">
         <v>15000</v>
       </c>
       <c r="Z22" t="n">
-        <v>2560</v>
+        <v>2610</v>
       </c>
       <c r="AA22" t="n">
-        <v>3810</v>
+        <v>3860</v>
       </c>
       <c r="AB22" t="n">
-        <v>1080</v>
+        <v>1280</v>
       </c>
       <c r="AC22" t="n">
         <v>0</v>
@@ -10679,7 +10899,7 @@
         <v>5</v>
       </c>
       <c r="AI22" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
@@ -10692,28 +10912,40 @@
         </is>
       </c>
       <c r="AL22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM22" t="inlineStr"/>
+      <c r="AN22" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO22" t="n">
         <v>839524.0627049999</v>
       </c>
-      <c r="AM22" t="n">
+      <c r="AP22" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN22" t="n">
+      <c r="AQ22" t="n">
         <v>69261.07941123999</v>
       </c>
-      <c r="AO22" t="n">
+      <c r="AR22" t="n">
         <v>23382.7</v>
       </c>
-      <c r="AP22" t="n">
-        <v>97518.39999999999</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR22" t="n">
+      <c r="AS22" t="n">
+        <v>105905.39062705</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>48307.10000000001</v>
+      </c>
+      <c r="AU22" t="n">
         <v>50651.7150237375</v>
       </c>
-      <c r="AS22" t="n">
-        <v>1194606.907139977</v>
+      <c r="AV22" t="n">
+        <v>290054.8161991583</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>1541355.813966186</v>
       </c>
     </row>
     <row r="23">
@@ -10750,7 +10982,7 @@
         <v>7</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L23" t="n">
         <v>84</v>
@@ -10777,31 +11009,31 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>482585.0965128699</v>
+        <v>706467.2756376729</v>
       </c>
       <c r="U23" t="n">
-        <v>80727.67869851999</v>
+        <v>115493.6638079048</v>
       </c>
       <c r="V23" t="n">
-        <v>58755.92886221001</v>
+        <v>85882.18723018804</v>
       </c>
       <c r="W23" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="X23" t="n">
-        <v>1070</v>
+        <v>1270</v>
       </c>
       <c r="Y23" t="n">
         <v>15000</v>
       </c>
       <c r="Z23" t="n">
-        <v>2760</v>
+        <v>2960</v>
       </c>
       <c r="AA23" t="n">
-        <v>3950</v>
+        <v>4150</v>
       </c>
       <c r="AB23" t="n">
-        <v>1080</v>
+        <v>1880</v>
       </c>
       <c r="AC23" t="n">
         <v>0</v>
@@ -10822,7 +11054,7 @@
         <v>7</v>
       </c>
       <c r="AI23" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
@@ -10835,28 +11067,40 @@
         </is>
       </c>
       <c r="AL23" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM23" t="inlineStr"/>
+      <c r="AN23" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO23" t="n">
         <v>917344.559845</v>
       </c>
-      <c r="AM23" t="n">
+      <c r="AP23" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN23" t="n">
+      <c r="AQ23" t="n">
         <v>110709.40140186</v>
       </c>
-      <c r="AO23" t="n">
+      <c r="AR23" t="n">
         <v>30363.65</v>
       </c>
-      <c r="AP23" t="n">
-        <v>152526</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR23" t="n">
+      <c r="AS23" t="n">
+        <v>170856.3911969</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>88395.10000000001</v>
+      </c>
+      <c r="AU23" t="n">
         <v>65394.1092435055</v>
       </c>
-      <c r="AS23" t="n">
-        <v>1390606.670490365</v>
+      <c r="AV23" t="n">
+        <v>515417.9707985321</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>2012750.132485797</v>
       </c>
     </row>
     <row r="24">
@@ -10893,7 +11137,7 @@
         <v>8</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L24" t="n">
         <v>84</v>
@@ -10920,31 +11164,31 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>560576.564064</v>
+        <v>893493.786762304</v>
       </c>
       <c r="U24" t="n">
-        <v>97683.82545824</v>
+        <v>149698.3404968877</v>
       </c>
       <c r="V24" t="n">
-        <v>71196.07276142</v>
+        <v>112674.1020101479</v>
       </c>
       <c r="W24" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="X24" t="n">
-        <v>1350</v>
+        <v>1550</v>
       </c>
       <c r="Y24" t="n">
         <v>15000</v>
       </c>
       <c r="Z24" t="n">
-        <v>2760</v>
+        <v>2960</v>
       </c>
       <c r="AA24" t="n">
-        <v>4230</v>
+        <v>4430</v>
       </c>
       <c r="AB24" t="n">
-        <v>1080</v>
+        <v>1880</v>
       </c>
       <c r="AC24" t="n">
         <v>0</v>
@@ -10965,7 +11209,7 @@
         <v>8</v>
       </c>
       <c r="AI24" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ24" t="inlineStr">
         <is>
@@ -10978,28 +11222,40 @@
         </is>
       </c>
       <c r="AL24" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM24" t="inlineStr"/>
+      <c r="AN24" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO24" t="n">
         <v>1040161.193335</v>
       </c>
-      <c r="AM24" t="n">
+      <c r="AP24" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN24" t="n">
+      <c r="AQ24" t="n">
         <v>124190.72992368</v>
       </c>
-      <c r="AO24" t="n">
+      <c r="AR24" t="n">
         <v>43173.05</v>
       </c>
-      <c r="AP24" t="n">
-        <v>257621.2</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR24" t="n">
+      <c r="AS24" t="n">
+        <v>299194.6477334001</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>141235.85</v>
+      </c>
+      <c r="AU24" t="n">
         <v>78411.254845341</v>
       </c>
-      <c r="AS24" t="n">
-        <v>1657826.378104021</v>
+      <c r="AV24" t="n">
+        <v>749906.7469117583</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>2590542.422749179</v>
       </c>
     </row>
     <row r="25">
@@ -11036,7 +11292,7 @@
         <v>10</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L25" t="n">
         <v>84</v>
@@ -11063,31 +11319,31 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>716237.4572794</v>
+        <v>1530422.915925379</v>
       </c>
       <c r="U25" t="n">
-        <v>132732.103593</v>
+        <v>256285.926688869</v>
       </c>
       <c r="V25" t="n">
-        <v>96525.2133</v>
+        <v>195985.036863252</v>
       </c>
       <c r="W25" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="X25" t="n">
-        <v>1910</v>
+        <v>2110</v>
       </c>
       <c r="Y25" t="n">
         <v>15000</v>
       </c>
       <c r="Z25" t="n">
-        <v>2760</v>
+        <v>2960</v>
       </c>
       <c r="AA25" t="n">
-        <v>4790</v>
+        <v>4990</v>
       </c>
       <c r="AB25" t="n">
-        <v>1080</v>
+        <v>1880</v>
       </c>
       <c r="AC25" t="n">
         <v>0</v>
@@ -11108,7 +11364,7 @@
         <v>10</v>
       </c>
       <c r="AI25" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ25" t="inlineStr">
         <is>
@@ -11121,28 +11377,40 @@
         </is>
       </c>
       <c r="AL25" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM25" t="inlineStr"/>
+      <c r="AN25" t="inlineStr">
+        <is>
+          <t>1,1,3000;2,1,3000;3,1,3000;4,1,3000;1,2,3000;2,2,3000;3,2,3000;4,2,3000;5,1,3000;5,2,3000</t>
+        </is>
+      </c>
+      <c r="AO25" t="n">
         <v>1295393.278005</v>
       </c>
-      <c r="AM25" t="n">
+      <c r="AP25" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN25" t="n">
+      <c r="AQ25" t="n">
         <v>152686.06378044</v>
       </c>
-      <c r="AO25" t="n">
+      <c r="AR25" t="n">
         <v>68760.45</v>
       </c>
-      <c r="AP25" t="n">
-        <v>467803.6</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR25" t="n">
+      <c r="AS25" t="n">
+        <v>571369.0622404</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>207129.45</v>
+      </c>
+      <c r="AU25" t="n">
         <v>103450.60676066</v>
       </c>
-      <c r="AS25" t="n">
-        <v>2202362.9485461</v>
+      <c r="AV25" t="n">
+        <v>1930305.911255775</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>4443363.772042274</v>
       </c>
     </row>
   </sheetData>
